--- a/ch_02/ch_02_solutions.xlsx
+++ b/ch_02/ch_02_solutions.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\ch_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE4726-E7DD-4EC7-AF2F-BF79F53EE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E97AA-6E31-42D8-A470-2C0AFF8DF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{74D39968-1C19-4E83-835D-2153A2EDE06B}"/>
+    <workbookView xWindow="-18068" yWindow="0" windowWidth="17213" windowHeight="13290" xr2:uid="{74D39968-1C19-4E83-835D-2153A2EDE06B}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="3" r:id="rId1"/>
     <sheet name="sales-pq" sheetId="4" r:id="rId2"/>
     <sheet name="penguins" sheetId="2" r:id="rId3"/>
-    <sheet name="penguings-pq" sheetId="5" r:id="rId4"/>
+    <sheet name="penguins-pq" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'penguings-pq'!$A$1:$H$345</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'penguins-pq'!$A$1:$H$345</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'sales-pq'!$A$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -212,10 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,30 +246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="sales"/>
-      <sheetName val="sales-pq"/>
-      <sheetName val="penguins"/>
-      <sheetName val="penguins-pq"/>
-      <sheetName val="ch_02_solutions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -326,9 +298,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{844CD3C6-040C-49FC-BAF4-1C6C0FF281CD}" name="sales_2" displayName="sales_2" ref="A1:F16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F16" xr:uid="{844CD3C6-040C-49FC-BAF4-1C6C0FF281CD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2D956561-5015-4BAB-9FE2-E1AA8774D067}" uniqueName="1" name="emp_first" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{41333A99-E1EB-475E-9FBA-C2DCFE96CD26}" uniqueName="2" name="emp_last" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C1402DBB-E25C-4D8B-BA68-F60EB692065A}" uniqueName="3" name="product" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2D956561-5015-4BAB-9FE2-E1AA8774D067}" uniqueName="1" name="emp_first" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{41333A99-E1EB-475E-9FBA-C2DCFE96CD26}" uniqueName="2" name="emp_last" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C1402DBB-E25C-4D8B-BA68-F60EB692065A}" uniqueName="3" name="product" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{F86C7204-1FF4-48D4-9B1A-08848636411E}" uniqueName="4" name="quantity" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{0A1C1958-6587-48BD-88AE-33366AFF2F16}" uniqueName="5" name="sales_amt" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{D8544F0F-1807-4902-B324-4EEBF542DDDF}" uniqueName="6" name="Index" queryTableFieldId="6"/>
@@ -348,8 +320,8 @@
     <tableColumn id="5" xr3:uid="{D4DDD5D5-7535-4C24-A9A7-DFC5F41B25C9}" name="flipper_length_mm"/>
     <tableColumn id="6" xr3:uid="{C559E423-FCD2-44FD-B4D2-D4DBA1A17F23}" name="body_mass_g"/>
     <tableColumn id="7" xr3:uid="{3785C424-BE18-4585-95B4-4DFE032981C3}" name="sex"/>
-    <tableColumn id="9" xr3:uid="{53926298-D3FF-457B-9D3F-727ECE07B589}" name="bl_bd_ratio" dataDxfId="5">
-      <calculatedColumnFormula>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{53926298-D3FF-457B-9D3F-727ECE07B589}" name="bl_bd_ratio" dataDxfId="2">
+      <calculatedColumnFormula>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -672,7 +644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EDAD2A-5730-4A27-896C-AA81286B9D15}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1000,13 +974,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
@@ -1020,13 +994,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -1040,13 +1014,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
@@ -1060,13 +1034,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
@@ -1080,13 +1054,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
@@ -1100,13 +1074,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
@@ -1120,13 +1094,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
@@ -1140,13 +1114,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
@@ -1160,13 +1134,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
@@ -1180,13 +1154,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11">
@@ -1200,13 +1174,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
@@ -1220,13 +1194,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
@@ -1240,13 +1214,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
@@ -1260,13 +1234,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
@@ -1280,13 +1254,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16">
@@ -1364,7 +1338,7 @@
         <v>35</v>
       </c>
       <c r="H2">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0655737704918029</v>
       </c>
     </row>
@@ -1391,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0160427807486632</v>
       </c>
     </row>
@@ -1418,7 +1392,7 @@
         <v>35</v>
       </c>
       <c r="H4">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8697916666666667</v>
       </c>
     </row>
@@ -1445,7 +1419,7 @@
         <v>36</v>
       </c>
       <c r="H5">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1104972375690609</v>
       </c>
     </row>
@@ -1472,7 +1446,7 @@
         <v>36</v>
       </c>
       <c r="H6">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2558139534883721</v>
       </c>
     </row>
@@ -1499,7 +1473,7 @@
         <v>35</v>
       </c>
       <c r="H7">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8677248677248677</v>
       </c>
     </row>
@@ -1526,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="H8">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.182795698924731</v>
       </c>
     </row>
@@ -1553,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="H9">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2625698324022347</v>
       </c>
     </row>
@@ -1580,7 +1554,7 @@
         <v>35</v>
       </c>
       <c r="H10">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0376344086021505</v>
       </c>
     </row>
@@ -1607,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="H11">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1428571428571432</v>
       </c>
     </row>
@@ -1634,7 +1608,7 @@
         <v>35</v>
       </c>
       <c r="H12">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2372881355932206</v>
       </c>
     </row>
@@ -1661,7 +1635,7 @@
         <v>36</v>
       </c>
       <c r="H13">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1216931216931219</v>
       </c>
     </row>
@@ -1688,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="H14">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9553072625698324</v>
       </c>
     </row>
@@ -1715,7 +1689,7 @@
         <v>36</v>
       </c>
       <c r="H15">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1538461538461537</v>
       </c>
     </row>
@@ -1742,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="H16">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9060773480662982</v>
       </c>
     </row>
@@ -1769,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="H17">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.225806451612903</v>
       </c>
     </row>
@@ -1796,7 +1770,7 @@
         <v>35</v>
       </c>
       <c r="H18">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2285714285714286</v>
       </c>
     </row>
@@ -1823,7 +1797,7 @@
         <v>36</v>
       </c>
       <c r="H19">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1595744680851063</v>
       </c>
     </row>
@@ -1850,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="H20">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1987951807228914</v>
       </c>
     </row>
@@ -1877,7 +1851,7 @@
         <v>36</v>
       </c>
       <c r="H21">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9685863874345548</v>
       </c>
     </row>
@@ -1904,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="H22">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1124260355029589</v>
       </c>
     </row>
@@ -1931,7 +1905,7 @@
         <v>36</v>
       </c>
       <c r="H23">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9573459715639807</v>
       </c>
     </row>
@@ -1958,7 +1932,7 @@
         <v>35</v>
       </c>
       <c r="H24">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2117647058823531</v>
       </c>
     </row>
@@ -1985,7 +1959,7 @@
         <v>36</v>
       </c>
       <c r="H25">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2582417582417582</v>
       </c>
     </row>
@@ -2012,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="H26">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1286549707602336</v>
       </c>
     </row>
@@ -2039,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="H27">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3111111111111113</v>
       </c>
     </row>
@@ -2066,7 +2040,7 @@
         <v>35</v>
       </c>
       <c r="H28">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.191358024691358</v>
       </c>
     </row>
@@ -2093,7 +2067,7 @@
         <v>36</v>
       </c>
       <c r="H29">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1518324607329844</v>
       </c>
     </row>
@@ -2120,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="H30">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9553072625698324</v>
       </c>
     </row>
@@ -2147,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="H31">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0499999999999998</v>
       </c>
     </row>
@@ -2174,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="H32">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3562500000000002</v>
       </c>
     </row>
@@ -2201,7 +2175,7 @@
         <v>36</v>
       </c>
       <c r="H33">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.89</v>
       </c>
     </row>
@@ -2228,7 +2202,7 @@
         <v>35</v>
       </c>
       <c r="H34">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0376344086021505</v>
       </c>
     </row>
@@ -2255,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="H35">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1005291005291009</v>
       </c>
     </row>
@@ -2282,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="H36">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2441860465116279</v>
       </c>
     </row>
@@ -2309,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="H37">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9100000000000001</v>
       </c>
     </row>
@@ -2336,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="H38">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2411764705882353</v>
       </c>
     </row>
@@ -2363,7 +2337,7 @@
         <v>36</v>
       </c>
       <c r="H39">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2736842105263158</v>
       </c>
     </row>
@@ -2390,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="H40">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3090909090909091</v>
       </c>
     </row>
@@ -2417,7 +2391,7 @@
         <v>36</v>
       </c>
       <c r="H41">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2463054187192117</v>
       </c>
     </row>
@@ -2444,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="H42">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2429378531073447</v>
       </c>
     </row>
@@ -2471,7 +2445,7 @@
         <v>36</v>
       </c>
       <c r="H43">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1641025641025644</v>
       </c>
     </row>
@@ -2498,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="H44">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9130434782608696</v>
       </c>
     </row>
@@ -2525,7 +2499,7 @@
         <v>36</v>
       </c>
       <c r="H45">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -2552,7 +2526,7 @@
         <v>35</v>
       </c>
       <c r="H46">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4924242424242427</v>
       </c>
     </row>
@@ -2579,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="H47">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0674846625766872</v>
       </c>
     </row>
@@ -2606,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="H48">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4539007092198584</v>
       </c>
     </row>
@@ -2633,7 +2607,7 @@
         <v>36</v>
       </c>
       <c r="H49">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2894736842105265</v>
       </c>
     </row>
@@ -2660,7 +2634,7 @@
         <v>36</v>
       </c>
       <c r="H50">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2827586206896551</v>
       </c>
     </row>
@@ -2687,7 +2661,7 @@
         <v>35</v>
       </c>
       <c r="H51">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4444444444444446</v>
       </c>
     </row>
@@ -2714,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="H52">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1095890410958904</v>
       </c>
     </row>
@@ -2741,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="H53">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0522875816993467</v>
       </c>
     </row>
@@ -2768,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="H54">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2313432835820892</v>
       </c>
     </row>
@@ -2795,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="H55">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0389610389610389</v>
       </c>
     </row>
@@ -2822,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="H56">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9854014598540148</v>
       </c>
     </row>
@@ -2849,7 +2823,7 @@
         <v>36</v>
       </c>
       <c r="H57">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.043478260869565</v>
       </c>
     </row>
@@ -2876,7 +2850,7 @@
         <v>35</v>
       </c>
       <c r="H58">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3211678832116789</v>
       </c>
     </row>
@@ -2903,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="H59">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3150684931506849</v>
       </c>
     </row>
@@ -2930,7 +2904,7 @@
         <v>35</v>
       </c>
       <c r="H60">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1369863013698631</v>
       </c>
     </row>
@@ -2957,7 +2931,7 @@
         <v>36</v>
       </c>
       <c r="H61">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1401273885350318</v>
       </c>
     </row>
@@ -2984,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="H62">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1111111111111112</v>
       </c>
     </row>
@@ -3011,7 +2985,7 @@
         <v>36</v>
       </c>
       <c r="H63">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2368421052631584</v>
       </c>
     </row>
@@ -3038,7 +3012,7 @@
         <v>35</v>
       </c>
       <c r="H64">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1862068965517243</v>
       </c>
     </row>
@@ -3065,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="H65">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2251655629139075</v>
       </c>
     </row>
@@ -3092,7 +3066,7 @@
         <v>36</v>
       </c>
       <c r="H66">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.5104895104895104</v>
       </c>
     </row>
@@ -3119,7 +3093,7 @@
         <v>35</v>
       </c>
       <c r="H67">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1103448275862071</v>
       </c>
     </row>
@@ -3146,7 +3120,7 @@
         <v>35</v>
       </c>
       <c r="H68">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2068965517241379</v>
       </c>
     </row>
@@ -3173,7 +3147,7 @@
         <v>36</v>
       </c>
       <c r="H69">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9303797468354427</v>
       </c>
     </row>
@@ -3200,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="H70">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2748091603053435</v>
       </c>
     </row>
@@ -3227,7 +3201,7 @@
         <v>36</v>
       </c>
       <c r="H71">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0529801324503314</v>
       </c>
     </row>
@@ -3254,7 +3228,7 @@
         <v>37</v>
       </c>
       <c r="H72">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1118881118881117</v>
       </c>
     </row>
@@ -3281,7 +3255,7 @@
         <v>36</v>
       </c>
       <c r="H73">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1866666666666665</v>
       </c>
     </row>
@@ -3308,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="H74">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3706293706293708</v>
       </c>
     </row>
@@ -3335,7 +3309,7 @@
         <v>36</v>
       </c>
       <c r="H75">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2679738562091503</v>
       </c>
     </row>
@@ -3362,7 +3336,7 @@
         <v>36</v>
       </c>
       <c r="H76">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0915032679738559</v>
       </c>
     </row>
@@ -3389,7 +3363,7 @@
         <v>35</v>
       </c>
       <c r="H77">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0140845070422535</v>
       </c>
     </row>
@@ -3416,7 +3390,7 @@
         <v>35</v>
       </c>
       <c r="H78">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1103448275862071</v>
       </c>
     </row>
@@ -3443,7 +3417,7 @@
         <v>36</v>
       </c>
       <c r="H79">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.5058823529411764</v>
       </c>
     </row>
@@ -3470,7 +3444,7 @@
         <v>35</v>
       </c>
       <c r="H80">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3175675675675675</v>
       </c>
     </row>
@@ -3497,7 +3471,7 @@
         <v>36</v>
       </c>
       <c r="H81">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9693251533742329</v>
       </c>
     </row>
@@ -3524,7 +3498,7 @@
         <v>35</v>
       </c>
       <c r="H82">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1094890510948909</v>
       </c>
     </row>
@@ -3551,7 +3525,7 @@
         <v>36</v>
       </c>
       <c r="H83">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5664739884393062</v>
       </c>
     </row>
@@ -3578,7 +3552,7 @@
         <v>35</v>
       </c>
       <c r="H84">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2352941176470589</v>
       </c>
     </row>
@@ -3605,7 +3579,7 @@
         <v>36</v>
       </c>
       <c r="H85">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1019108280254781</v>
       </c>
     </row>
@@ -3632,7 +3606,7 @@
         <v>35</v>
       </c>
       <c r="H86">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1167883211678835</v>
       </c>
     </row>
@@ -3659,7 +3633,7 @@
         <v>36</v>
       </c>
       <c r="H87">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1</v>
       </c>
     </row>
@@ -3686,7 +3660,7 @@
         <v>35</v>
       </c>
       <c r="H88">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3065693430656933</v>
       </c>
     </row>
@@ -3713,7 +3687,7 @@
         <v>36</v>
       </c>
       <c r="H89">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3066666666666666</v>
       </c>
     </row>
@@ -3740,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="H90">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1761006289308176</v>
       </c>
     </row>
@@ -3767,7 +3741,7 @@
         <v>35</v>
       </c>
       <c r="H91">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1366906474820144</v>
       </c>
     </row>
@@ -3794,7 +3768,7 @@
         <v>35</v>
       </c>
       <c r="H92">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2733812949640289</v>
       </c>
     </row>
@@ -3821,7 +3795,7 @@
         <v>36</v>
       </c>
       <c r="H93">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1761006289308176</v>
       </c>
     </row>
@@ -3848,7 +3822,7 @@
         <v>35</v>
       </c>
       <c r="H94">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3759398496240598</v>
       </c>
     </row>
@@ -3875,7 +3849,7 @@
         <v>36</v>
       </c>
       <c r="H95">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8607594936708862</v>
       </c>
     </row>
@@ -3902,7 +3876,7 @@
         <v>35</v>
       </c>
       <c r="H96">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2816901408450705</v>
       </c>
     </row>
@@ -3929,7 +3903,7 @@
         <v>36</v>
       </c>
       <c r="H97">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4397163120567376</v>
       </c>
     </row>
@@ -3956,7 +3930,7 @@
         <v>35</v>
       </c>
       <c r="H98">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1319444444444446</v>
       </c>
     </row>
@@ -3983,7 +3957,7 @@
         <v>36</v>
       </c>
       <c r="H99">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3400000000000003</v>
       </c>
     </row>
@@ -4010,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="H100">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2291666666666665</v>
       </c>
     </row>
@@ -4037,7 +4011,7 @@
         <v>36</v>
       </c>
       <c r="H101">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9220779220779218</v>
       </c>
     </row>
@@ -4064,7 +4038,7 @@
         <v>35</v>
       </c>
       <c r="H102">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.151079136690647</v>
       </c>
     </row>
@@ -4091,7 +4065,7 @@
         <v>36</v>
       </c>
       <c r="H103">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0333333333333332</v>
       </c>
     </row>
@@ -4118,7 +4092,7 @@
         <v>35</v>
       </c>
       <c r="H104">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9793103448275864</v>
       </c>
     </row>
@@ -4145,7 +4119,7 @@
         <v>36</v>
       </c>
       <c r="H105">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2941176470588234</v>
       </c>
     </row>
@@ -4172,7 +4146,7 @@
         <v>35</v>
       </c>
       <c r="H106">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2826086956521734</v>
       </c>
     </row>
@@ -4199,7 +4173,7 @@
         <v>36</v>
       </c>
       <c r="H107">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1006711409395975</v>
       </c>
     </row>
@@ -4226,7 +4200,7 @@
         <v>35</v>
       </c>
       <c r="H108">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2877697841726619</v>
       </c>
     </row>
@@ -4253,7 +4227,7 @@
         <v>36</v>
       </c>
       <c r="H109">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4585987261146496</v>
       </c>
     </row>
@@ -4280,7 +4254,7 @@
         <v>35</v>
       </c>
       <c r="H110">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2253521126760565</v>
       </c>
     </row>
@@ -4307,7 +4281,7 @@
         <v>36</v>
       </c>
       <c r="H111">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.964285714285714</v>
       </c>
     </row>
@@ -4334,7 +4308,7 @@
         <v>37</v>
       </c>
       <c r="H112">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2083333333333335</v>
       </c>
     </row>
@@ -4361,7 +4335,7 @@
         <v>36</v>
       </c>
       <c r="H113">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0555555555555558</v>
       </c>
     </row>
@@ -4388,7 +4362,7 @@
         <v>35</v>
       </c>
       <c r="H114">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.063380281690141</v>
       </c>
     </row>
@@ -4415,7 +4389,7 @@
         <v>36</v>
       </c>
       <c r="H115">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3800000000000003</v>
       </c>
     </row>
@@ -4442,7 +4416,7 @@
         <v>35</v>
       </c>
       <c r="H116">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.18</v>
       </c>
     </row>
@@ -4469,7 +4443,7 @@
         <v>36</v>
       </c>
       <c r="H117">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9743589743589745</v>
       </c>
     </row>
@@ -4496,7 +4470,7 @@
         <v>36</v>
       </c>
       <c r="H118">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0897435897435899</v>
       </c>
     </row>
@@ -4523,7 +4497,7 @@
         <v>35</v>
       </c>
       <c r="H119">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1418918918918917</v>
       </c>
     </row>
@@ -4550,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="H120">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0933333333333333</v>
       </c>
     </row>
@@ -4577,7 +4551,7 @@
         <v>36</v>
       </c>
       <c r="H121">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0375000000000001</v>
       </c>
     </row>
@@ -4604,7 +4578,7 @@
         <v>35</v>
       </c>
       <c r="H122">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3450704225352115</v>
       </c>
     </row>
@@ -4631,7 +4605,7 @@
         <v>36</v>
       </c>
       <c r="H123">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1349693251533743</v>
       </c>
     </row>
@@ -4658,7 +4632,7 @@
         <v>35</v>
       </c>
       <c r="H124">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2753623188405796</v>
       </c>
     </row>
@@ -4685,7 +4659,7 @@
         <v>36</v>
       </c>
       <c r="H125">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.75609756097561</v>
       </c>
     </row>
@@ -4712,7 +4686,7 @@
         <v>35</v>
       </c>
       <c r="H126">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.386206896551724</v>
       </c>
     </row>
@@ -4739,7 +4713,7 @@
         <v>36</v>
       </c>
       <c r="H127">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3653846153846154</v>
       </c>
     </row>
@@ -4766,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="H128">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2465753424657535</v>
       </c>
     </row>
@@ -4793,7 +4767,7 @@
         <v>36</v>
       </c>
       <c r="H129">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1446540880503142</v>
       </c>
     </row>
@@ -4820,7 +4794,7 @@
         <v>35</v>
       </c>
       <c r="H130">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2536231884057969</v>
       </c>
     </row>
@@ -4847,7 +4821,7 @@
         <v>36</v>
       </c>
       <c r="H131">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9364161849710979</v>
       </c>
     </row>
@@ -4874,7 +4848,7 @@
         <v>35</v>
       </c>
       <c r="H132">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0138888888888888</v>
       </c>
     </row>
@@ -4901,7 +4875,7 @@
         <v>36</v>
       </c>
       <c r="H133">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.612676056338028</v>
       </c>
     </row>
@@ -4928,7 +4902,7 @@
         <v>35</v>
       </c>
       <c r="H134">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3928571428571428</v>
       </c>
     </row>
@@ -4955,7 +4929,7 @@
         <v>36</v>
       </c>
       <c r="H135">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0647058823529414</v>
       </c>
     </row>
@@ -4982,7 +4956,7 @@
         <v>35</v>
       </c>
       <c r="H136">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1666666666666665</v>
       </c>
     </row>
@@ -5009,7 +4983,7 @@
         <v>36</v>
       </c>
       <c r="H137">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0526315789473681</v>
       </c>
     </row>
@@ -5036,7 +5010,7 @@
         <v>35</v>
       </c>
       <c r="H138">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1379310344827585</v>
       </c>
     </row>
@@ -5063,7 +5037,7 @@
         <v>36</v>
       </c>
       <c r="H139">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0745341614906829</v>
       </c>
     </row>
@@ -5090,7 +5064,7 @@
         <v>35</v>
       </c>
       <c r="H140">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0272108843537415</v>
       </c>
     </row>
@@ -5117,7 +5091,7 @@
         <v>36</v>
       </c>
       <c r="H141">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2356687898089174</v>
       </c>
     </row>
@@ -5144,7 +5118,7 @@
         <v>36</v>
       </c>
       <c r="H142">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1265822784810124</v>
       </c>
     </row>
@@ -5171,7 +5145,7 @@
         <v>35</v>
       </c>
       <c r="H143">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2123287671232879</v>
       </c>
     </row>
@@ -5198,7 +5172,7 @@
         <v>35</v>
       </c>
       <c r="H144">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3611111111111107</v>
       </c>
     </row>
@@ -5225,7 +5199,7 @@
         <v>36</v>
       </c>
       <c r="H145">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0969696969696972</v>
       </c>
     </row>
@@ -5252,7 +5226,7 @@
         <v>35</v>
       </c>
       <c r="H146">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2333333333333334</v>
       </c>
     </row>
@@ -5279,7 +5253,7 @@
         <v>36</v>
       </c>
       <c r="H147">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2882352941176469</v>
       </c>
     </row>
@@ -5306,7 +5280,7 @@
         <v>35</v>
       </c>
       <c r="H148">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0451612903225809</v>
       </c>
     </row>
@@ -5333,7 +5307,7 @@
         <v>36</v>
       </c>
       <c r="H149">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2733333333333334</v>
       </c>
     </row>
@@ -5360,7 +5334,7 @@
         <v>37</v>
       </c>
       <c r="H150">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4275362318840576</v>
       </c>
     </row>
@@ -5387,7 +5361,7 @@
         <v>36</v>
       </c>
       <c r="H151">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9068322981366457</v>
       </c>
     </row>
@@ -5414,7 +5388,7 @@
         <v>35</v>
       </c>
       <c r="H152">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8367346938775513</v>
       </c>
     </row>
@@ -5441,7 +5415,7 @@
         <v>36</v>
       </c>
       <c r="H153">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3797468354430378</v>
       </c>
     </row>
@@ -5468,7 +5442,7 @@
         <v>35</v>
       </c>
       <c r="H154">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0928571428571425</v>
       </c>
     </row>
@@ -5495,7 +5469,7 @@
         <v>36</v>
       </c>
       <c r="H155">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.185430463576159</v>
       </c>
     </row>
@@ -5522,7 +5496,7 @@
         <v>35</v>
       </c>
       <c r="H156">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.3223684210526319</v>
       </c>
     </row>
@@ -5549,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="H157">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.132075471698113</v>
       </c>
     </row>
@@ -5576,7 +5550,7 @@
         <v>35</v>
       </c>
       <c r="H158">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.861842105263158</v>
       </c>
     </row>
@@ -5603,7 +5577,7 @@
         <v>36</v>
       </c>
       <c r="H159">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.1595092024539877</v>
       </c>
     </row>
@@ -5630,7 +5604,7 @@
         <v>35</v>
       </c>
       <c r="H160">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2765957446808511</v>
       </c>
     </row>
@@ -5657,7 +5631,7 @@
         <v>36</v>
       </c>
       <c r="H161">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.4437500000000001</v>
       </c>
     </row>
@@ -5684,7 +5658,7 @@
         <v>37</v>
       </c>
       <c r="H162">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8343949044585988</v>
       </c>
     </row>
@@ -5711,7 +5685,7 @@
         <v>36</v>
       </c>
       <c r="H163">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0123456790123457</v>
       </c>
     </row>
@@ -5738,7 +5712,7 @@
         <v>35</v>
       </c>
       <c r="H164">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.445255474452555</v>
       </c>
     </row>
@@ -5753,7 +5727,7 @@
         <v>37</v>
       </c>
       <c r="H165" t="e">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5780,7 +5754,7 @@
         <v>35</v>
       </c>
       <c r="H166">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2727272727272725</v>
       </c>
     </row>
@@ -5807,7 +5781,7 @@
         <v>36</v>
       </c>
       <c r="H167">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2101910828025479</v>
       </c>
     </row>
@@ -5834,7 +5808,7 @@
         <v>35</v>
       </c>
       <c r="H168">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0540540540540539</v>
       </c>
     </row>
@@ -5861,7 +5835,7 @@
         <v>36</v>
       </c>
       <c r="H169">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.0993788819875774</v>
       </c>
     </row>
@@ -5888,7 +5862,7 @@
         <v>35</v>
       </c>
       <c r="H170">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3652694610778444</v>
       </c>
     </row>
@@ -5915,7 +5889,7 @@
         <v>36</v>
       </c>
       <c r="H171">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0552486187845305</v>
       </c>
     </row>
@@ -5942,7 +5916,7 @@
         <v>35</v>
       </c>
       <c r="H172">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2191011235955056</v>
       </c>
     </row>
@@ -5969,7 +5943,7 @@
         <v>36</v>
       </c>
       <c r="H173">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1640211640211642</v>
       </c>
     </row>
@@ -5996,7 +5970,7 @@
         <v>35</v>
       </c>
       <c r="H174">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1411764705882352</v>
       </c>
     </row>
@@ -6023,7 +5997,7 @@
         <v>36</v>
       </c>
       <c r="H175">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8578199052132702</v>
       </c>
     </row>
@@ -6050,7 +6024,7 @@
         <v>36</v>
       </c>
       <c r="H176">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.94</v>
       </c>
     </row>
@@ -6077,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="H177">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2810810810810813</v>
       </c>
     </row>
@@ -6104,7 +6078,7 @@
         <v>35</v>
       </c>
       <c r="H178">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9481865284974094</v>
       </c>
     </row>
@@ -6131,7 +6105,7 @@
         <v>36</v>
       </c>
       <c r="H179">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.083769633507853</v>
       </c>
     </row>
@@ -6158,7 +6132,7 @@
         <v>35</v>
       </c>
       <c r="H180">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0277777777777777</v>
       </c>
     </row>
@@ -6185,7 +6159,7 @@
         <v>36</v>
       </c>
       <c r="H181">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2173913043478262</v>
       </c>
     </row>
@@ -6212,7 +6186,7 @@
         <v>35</v>
       </c>
       <c r="H182">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9459459459459461</v>
       </c>
     </row>
@@ -6239,7 +6213,7 @@
         <v>36</v>
       </c>
       <c r="H183">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2385786802030458</v>
       </c>
     </row>
@@ -6266,7 +6240,7 @@
         <v>35</v>
       </c>
       <c r="H184">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1893491124260356</v>
       </c>
     </row>
@@ -6293,7 +6267,7 @@
         <v>36</v>
       </c>
       <c r="H185">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1063829787234041</v>
       </c>
     </row>
@@ -6320,7 +6294,7 @@
         <v>36</v>
       </c>
       <c r="H186">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1631578947368424</v>
       </c>
     </row>
@@ -6347,7 +6321,7 @@
         <v>37</v>
       </c>
       <c r="H187">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9841269841269842</v>
       </c>
     </row>
@@ -6374,7 +6348,7 @@
         <v>35</v>
       </c>
       <c r="H188">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.011173184357542</v>
       </c>
     </row>
@@ -6401,7 +6375,7 @@
         <v>36</v>
       </c>
       <c r="H189">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9952830188679245</v>
       </c>
     </row>
@@ -6428,7 +6402,7 @@
         <v>35</v>
       </c>
       <c r="H190">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.095505617977528</v>
       </c>
     </row>
@@ -6455,7 +6429,7 @@
         <v>36</v>
       </c>
       <c r="H191">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0344827586206895</v>
       </c>
     </row>
@@ -6482,7 +6456,7 @@
         <v>36</v>
       </c>
       <c r="H192">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8615384615384614</v>
       </c>
     </row>
@@ -6509,7 +6483,7 @@
         <v>35</v>
       </c>
       <c r="H193">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9838709677419353</v>
       </c>
     </row>
@@ -6536,7 +6510,7 @@
         <v>36</v>
       </c>
       <c r="H194">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9947916666666665</v>
       </c>
     </row>
@@ -6563,7 +6537,7 @@
         <v>35</v>
       </c>
       <c r="H195">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0691489361702127</v>
       </c>
     </row>
@@ -6590,7 +6564,7 @@
         <v>35</v>
       </c>
       <c r="H196">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9833333333333334</v>
       </c>
     </row>
@@ -6617,7 +6591,7 @@
         <v>36</v>
       </c>
       <c r="H197">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.270718232044199</v>
       </c>
     </row>
@@ -6644,7 +6618,7 @@
         <v>35</v>
       </c>
       <c r="H198">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9883040935672514</v>
       </c>
     </row>
@@ -6671,7 +6645,7 @@
         <v>36</v>
       </c>
       <c r="H199">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1878453038674031</v>
       </c>
     </row>
@@ -6698,7 +6672,7 @@
         <v>35</v>
       </c>
       <c r="H200">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0924855491329479</v>
       </c>
     </row>
@@ -6725,7 +6699,7 @@
         <v>36</v>
       </c>
       <c r="H201">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1587301587301586</v>
       </c>
     </row>
@@ -6752,7 +6726,7 @@
         <v>35</v>
       </c>
       <c r="H202">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0483870967741935</v>
       </c>
     </row>
@@ -6779,7 +6753,7 @@
         <v>36</v>
       </c>
       <c r="H203">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1783783783783783</v>
       </c>
     </row>
@@ -6806,7 +6780,7 @@
         <v>35</v>
       </c>
       <c r="H204">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0559006211180124</v>
       </c>
     </row>
@@ -6833,7 +6807,7 @@
         <v>36</v>
       </c>
       <c r="H205">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3351351351351353</v>
       </c>
     </row>
@@ -6860,7 +6834,7 @@
         <v>35</v>
       </c>
       <c r="H206">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9891891891891891</v>
       </c>
     </row>
@@ -6887,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="H207">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0270270270270272</v>
       </c>
     </row>
@@ -6914,7 +6888,7 @@
         <v>35</v>
       </c>
       <c r="H208">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1647727272727271</v>
       </c>
     </row>
@@ -6941,7 +6915,7 @@
         <v>36</v>
       </c>
       <c r="H209">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3485714285714288</v>
       </c>
     </row>
@@ -6968,7 +6942,7 @@
         <v>35</v>
       </c>
       <c r="H210">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0342857142857143</v>
       </c>
     </row>
@@ -6995,7 +6969,7 @@
         <v>36</v>
       </c>
       <c r="H211">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2</v>
       </c>
     </row>
@@ -7022,7 +6996,7 @@
         <v>35</v>
       </c>
       <c r="H212">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2424242424242422</v>
       </c>
     </row>
@@ -7049,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="H213">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2178770949720672</v>
       </c>
     </row>
@@ -7076,7 +7050,7 @@
         <v>35</v>
       </c>
       <c r="H214">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3508771929824559</v>
       </c>
     </row>
@@ -7103,7 +7077,7 @@
         <v>36</v>
       </c>
       <c r="H215">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.36046511627907</v>
       </c>
     </row>
@@ -7130,7 +7104,7 @@
         <v>35</v>
       </c>
       <c r="H216">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0709677419354842</v>
       </c>
     </row>
@@ -7157,7 +7131,7 @@
         <v>36</v>
       </c>
       <c r="H217">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3941176470588239</v>
       </c>
     </row>
@@ -7184,7 +7158,7 @@
         <v>35</v>
       </c>
       <c r="H218">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2202380952380949</v>
       </c>
     </row>
@@ -7211,7 +7185,7 @@
         <v>36</v>
       </c>
       <c r="H219">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0855614973262031</v>
       </c>
     </row>
@@ -7238,7 +7212,7 @@
         <v>36</v>
       </c>
       <c r="H220">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.10752688172043</v>
       </c>
     </row>
@@ -7265,7 +7239,7 @@
         <v>35</v>
       </c>
       <c r="H221">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9891304347826089</v>
       </c>
     </row>
@@ -7292,7 +7266,7 @@
         <v>35</v>
       </c>
       <c r="H222">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0224719101123596</v>
       </c>
     </row>
@@ -7319,7 +7293,7 @@
         <v>36</v>
       </c>
       <c r="H223">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0883977900552484</v>
       </c>
     </row>
@@ -7346,7 +7320,7 @@
         <v>35</v>
       </c>
       <c r="H224">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1052631578947367</v>
       </c>
     </row>
@@ -7373,7 +7347,7 @@
         <v>36</v>
       </c>
       <c r="H225">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2432432432432434</v>
       </c>
     </row>
@@ -7400,7 +7374,7 @@
         <v>35</v>
       </c>
       <c r="H226">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.597765363128492</v>
       </c>
     </row>
@@ -7427,7 +7401,7 @@
         <v>36</v>
       </c>
       <c r="H227">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5641025641025643</v>
       </c>
     </row>
@@ -7454,7 +7428,7 @@
         <v>36</v>
       </c>
       <c r="H228">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.671875</v>
       </c>
     </row>
@@ -7481,7 +7455,7 @@
         <v>35</v>
       </c>
       <c r="H229">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.427807486631016</v>
       </c>
     </row>
@@ -7508,7 +7482,7 @@
         <v>36</v>
       </c>
       <c r="H230">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6616161616161618</v>
       </c>
     </row>
@@ -7535,7 +7509,7 @@
         <v>35</v>
       </c>
       <c r="H231">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5393258426966292</v>
       </c>
     </row>
@@ -7562,7 +7536,7 @@
         <v>35</v>
       </c>
       <c r="H232">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5329670329670333</v>
       </c>
     </row>
@@ -7589,7 +7563,7 @@
         <v>36</v>
       </c>
       <c r="H233">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8186813186813184</v>
       </c>
     </row>
@@ -7616,7 +7590,7 @@
         <v>35</v>
       </c>
       <c r="H234">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4338624338624339</v>
       </c>
     </row>
@@ -7643,7 +7617,7 @@
         <v>36</v>
       </c>
       <c r="H235">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5778894472361809</v>
       </c>
     </row>
@@ -7670,7 +7644,7 @@
         <v>35</v>
       </c>
       <c r="H236">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6179775280898876</v>
       </c>
     </row>
@@ -7697,7 +7671,7 @@
         <v>36</v>
       </c>
       <c r="H237">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5467980295566504</v>
       </c>
     </row>
@@ -7724,7 +7698,7 @@
         <v>35</v>
       </c>
       <c r="H238">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7167630057803467</v>
       </c>
     </row>
@@ -7751,7 +7725,7 @@
         <v>36</v>
       </c>
       <c r="H239">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8729281767955799</v>
       </c>
     </row>
@@ -7778,7 +7752,7 @@
         <v>35</v>
       </c>
       <c r="H240">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6842105263157894</v>
       </c>
     </row>
@@ -7805,7 +7779,7 @@
         <v>36</v>
       </c>
       <c r="H241">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5765306122448979</v>
       </c>
     </row>
@@ -7832,7 +7806,7 @@
         <v>36</v>
       </c>
       <c r="H242">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5149999999999997</v>
       </c>
     </row>
@@ -7859,7 +7833,7 @@
         <v>35</v>
       </c>
       <c r="H243">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>3.2584269662921348</v>
       </c>
     </row>
@@ -7886,7 +7860,7 @@
         <v>35</v>
       </c>
       <c r="H244">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4946236559139781</v>
       </c>
     </row>
@@ -7913,7 +7887,7 @@
         <v>36</v>
       </c>
       <c r="H245">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7032967032967035</v>
       </c>
     </row>
@@ -7940,7 +7914,7 @@
         <v>35</v>
       </c>
       <c r="H246">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4508670520231211</v>
       </c>
     </row>
@@ -7967,7 +7941,7 @@
         <v>36</v>
       </c>
       <c r="H247">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7714285714285714</v>
       </c>
     </row>
@@ -7994,7 +7968,7 @@
         <v>35</v>
       </c>
       <c r="H248">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6024096385542168</v>
       </c>
     </row>
@@ -8021,7 +7995,7 @@
         <v>36</v>
       </c>
       <c r="H249">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6082474226804124</v>
       </c>
     </row>
@@ -8048,7 +8022,7 @@
         <v>35</v>
       </c>
       <c r="H250">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.608938547486034</v>
       </c>
     </row>
@@ -8075,7 +8049,7 @@
         <v>36</v>
       </c>
       <c r="H251">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.736842105263158</v>
       </c>
     </row>
@@ -8102,7 +8076,7 @@
         <v>35</v>
       </c>
       <c r="H252">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7445652173913047</v>
       </c>
     </row>
@@ -8129,7 +8103,7 @@
         <v>36</v>
       </c>
       <c r="H253">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6052631578947367</v>
       </c>
     </row>
@@ -8156,7 +8130,7 @@
         <v>35</v>
       </c>
       <c r="H254">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6067415730337076</v>
       </c>
     </row>
@@ -8183,7 +8157,7 @@
         <v>36</v>
       </c>
       <c r="H255">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6399999999999997</v>
       </c>
     </row>
@@ -8210,7 +8184,7 @@
         <v>35</v>
       </c>
       <c r="H256">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4638554216867465</v>
       </c>
     </row>
@@ -8237,7 +8211,7 @@
         <v>36</v>
       </c>
       <c r="H257">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6057692307692308</v>
       </c>
     </row>
@@ -8264,7 +8238,7 @@
         <v>35</v>
       </c>
       <c r="H258">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5449101796407185</v>
       </c>
     </row>
@@ -8291,7 +8265,7 @@
         <v>36</v>
       </c>
       <c r="H259">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7127659574468086</v>
       </c>
     </row>
@@ -8318,7 +8292,7 @@
         <v>36</v>
       </c>
       <c r="H260">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.672043010752688</v>
       </c>
     </row>
@@ -8345,7 +8319,7 @@
         <v>35</v>
       </c>
       <c r="H261">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8273809523809521</v>
       </c>
     </row>
@@ -8372,7 +8346,7 @@
         <v>35</v>
       </c>
       <c r="H262">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6010928961748632</v>
       </c>
     </row>
@@ -8399,7 +8373,7 @@
         <v>36</v>
       </c>
       <c r="H263">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5120772946859904</v>
       </c>
     </row>
@@ -8426,7 +8400,7 @@
         <v>35</v>
       </c>
       <c r="H264">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8253012048192767</v>
       </c>
     </row>
@@ -8453,7 +8427,7 @@
         <v>36</v>
       </c>
       <c r="H265">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6884422110552766</v>
       </c>
     </row>
@@ -8480,7 +8454,7 @@
         <v>36</v>
       </c>
       <c r="H266">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5128205128205128</v>
       </c>
     </row>
@@ -8507,7 +8481,7 @@
         <v>35</v>
       </c>
       <c r="H267">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.64</v>
       </c>
     </row>
@@ -8534,7 +8508,7 @@
         <v>36</v>
       </c>
       <c r="H268">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.664921465968586</v>
       </c>
     </row>
@@ -8561,7 +8535,7 @@
         <v>35</v>
       </c>
       <c r="H269">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6764705882352939</v>
       </c>
     </row>
@@ -8588,7 +8562,7 @@
         <v>35</v>
       </c>
       <c r="H270">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8435754189944134</v>
       </c>
     </row>
@@ -8615,7 +8589,7 @@
         <v>36</v>
       </c>
       <c r="H271">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7459459459459459</v>
       </c>
     </row>
@@ -8642,7 +8616,7 @@
         <v>35</v>
       </c>
       <c r="H272">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7988826815642462</v>
       </c>
     </row>
@@ -8669,7 +8643,7 @@
         <v>36</v>
       </c>
       <c r="H273">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5</v>
       </c>
     </row>
@@ -8696,7 +8670,7 @@
         <v>36</v>
       </c>
       <c r="H274">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7540106951871657</v>
       </c>
     </row>
@@ -8723,7 +8697,7 @@
         <v>35</v>
       </c>
       <c r="H275">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8786127167630053</v>
       </c>
     </row>
@@ -8750,7 +8724,7 @@
         <v>35</v>
       </c>
       <c r="H276">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.9329268292682928</v>
       </c>
     </row>
@@ -8777,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="H277">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7052631578947368</v>
       </c>
     </row>
@@ -8804,7 +8778,7 @@
         <v>35</v>
       </c>
       <c r="H278">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6416184971098264</v>
       </c>
     </row>
@@ -8831,7 +8805,7 @@
         <v>36</v>
       </c>
       <c r="H279">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.5736040609137056</v>
       </c>
     </row>
@@ -8858,7 +8832,7 @@
         <v>35</v>
       </c>
       <c r="H280">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4566473988439306</v>
       </c>
     </row>
@@ -8885,7 +8859,7 @@
         <v>36</v>
       </c>
       <c r="H281">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7765957446808511</v>
       </c>
     </row>
@@ -8912,7 +8886,7 @@
         <v>35</v>
       </c>
       <c r="H282">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7228915662650603</v>
       </c>
     </row>
@@ -8939,7 +8913,7 @@
         <v>36</v>
       </c>
       <c r="H283">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4773869346733668</v>
       </c>
     </row>
@@ -8966,7 +8940,7 @@
         <v>36</v>
       </c>
       <c r="H284">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6702127659574471</v>
       </c>
     </row>
@@ -8993,7 +8967,7 @@
         <v>35</v>
       </c>
       <c r="H285">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3505154639175259</v>
       </c>
     </row>
@@ -9020,7 +8994,7 @@
         <v>36</v>
       </c>
       <c r="H286">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6615384615384614</v>
       </c>
     </row>
@@ -9047,7 +9021,7 @@
         <v>35</v>
       </c>
       <c r="H287">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.836363636363636</v>
       </c>
     </row>
@@ -9074,7 +9048,7 @@
         <v>35</v>
       </c>
       <c r="H288">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6882352941176473</v>
       </c>
     </row>
@@ -9101,7 +9075,7 @@
         <v>36</v>
       </c>
       <c r="H289">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.8181818181818179</v>
       </c>
     </row>
@@ -9128,7 +9102,7 @@
         <v>35</v>
       </c>
       <c r="H290">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4033149171270716</v>
       </c>
     </row>
@@ -9155,7 +9129,7 @@
         <v>36</v>
       </c>
       <c r="H291">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.7252747252747254</v>
       </c>
     </row>
@@ -9182,7 +9156,7 @@
         <v>36</v>
       </c>
       <c r="H292">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6736842105263157</v>
       </c>
     </row>
@@ -9209,7 +9183,7 @@
         <v>35</v>
       </c>
       <c r="H293">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.6844919786096257</v>
       </c>
     </row>
@@ -9236,7 +9210,7 @@
         <v>36</v>
       </c>
       <c r="H294">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0909090909090913</v>
       </c>
     </row>
@@ -9263,7 +9237,7 @@
         <v>35</v>
       </c>
       <c r="H295">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2701149425287359</v>
       </c>
     </row>
@@ -9290,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="H296">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2388888888888889</v>
       </c>
     </row>
@@ -9305,7 +9279,7 @@
         <v>37</v>
       </c>
       <c r="H297" t="e">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9332,7 +9306,7 @@
         <v>35</v>
       </c>
       <c r="H298">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9015544041450778</v>
       </c>
     </row>
@@ -9359,7 +9333,7 @@
         <v>36</v>
       </c>
       <c r="H299">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.907766990291262</v>
       </c>
     </row>
@@ -9386,7 +9360,7 @@
         <v>35</v>
       </c>
       <c r="H300">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.185393258426966</v>
       </c>
     </row>
@@ -9413,7 +9387,7 @@
         <v>36</v>
       </c>
       <c r="H301">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2</v>
       </c>
     </row>
@@ -9440,7 +9414,7 @@
         <v>37</v>
       </c>
       <c r="H302">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8839779005524862</v>
       </c>
     </row>
@@ -9467,7 +9441,7 @@
         <v>37</v>
       </c>
       <c r="H303">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0792079207920793</v>
       </c>
     </row>
@@ -9494,7 +9468,7 @@
         <v>37</v>
       </c>
       <c r="H304">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2105263157894735</v>
       </c>
     </row>
@@ -9521,7 +9495,7 @@
         <v>37</v>
       </c>
       <c r="H305">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1849710982658959</v>
       </c>
     </row>
@@ -9548,7 +9522,7 @@
         <v>35</v>
       </c>
       <c r="H306">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3352272727272725</v>
       </c>
     </row>
@@ -9575,7 +9549,7 @@
         <v>36</v>
       </c>
       <c r="H307">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8207547169811322</v>
       </c>
     </row>
@@ -9602,7 +9576,7 @@
         <v>36</v>
       </c>
       <c r="H308">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.6398104265402844</v>
       </c>
     </row>
@@ -9629,7 +9603,7 @@
         <v>35</v>
       </c>
       <c r="H309">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0561797752808988</v>
       </c>
     </row>
@@ -9656,7 +9630,7 @@
         <v>35</v>
       </c>
       <c r="H310">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0368421052631582</v>
       </c>
     </row>
@@ -9683,7 +9657,7 @@
         <v>36</v>
       </c>
       <c r="H311">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0531400966183577</v>
       </c>
     </row>
@@ -9710,7 +9684,7 @@
         <v>35</v>
       </c>
       <c r="H312">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8695652173913044</v>
       </c>
     </row>
@@ -9737,7 +9711,7 @@
         <v>36</v>
       </c>
       <c r="H313">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.13953488372093</v>
       </c>
     </row>
@@ -9764,7 +9738,7 @@
         <v>35</v>
       </c>
       <c r="H314">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1626506024096384</v>
       </c>
     </row>
@@ -9791,7 +9765,7 @@
         <v>36</v>
       </c>
       <c r="H315">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1546391752577319</v>
       </c>
     </row>
@@ -9818,7 +9792,7 @@
         <v>35</v>
       </c>
       <c r="H316">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.763157894736842</v>
       </c>
     </row>
@@ -9845,7 +9819,7 @@
         <v>36</v>
       </c>
       <c r="H317">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1576086956521743</v>
       </c>
     </row>
@@ -9872,7 +9846,7 @@
         <v>35</v>
       </c>
       <c r="H318">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3023255813953489</v>
       </c>
     </row>
@@ -9899,7 +9873,7 @@
         <v>36</v>
       </c>
       <c r="H319">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4232804232804233</v>
       </c>
     </row>
@@ -9926,7 +9900,7 @@
         <v>35</v>
       </c>
       <c r="H320">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0285714285714285</v>
       </c>
     </row>
@@ -9953,7 +9927,7 @@
         <v>36</v>
       </c>
       <c r="H321">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3135135135135134</v>
       </c>
     </row>
@@ -9980,7 +9954,7 @@
         <v>35</v>
       </c>
       <c r="H322">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4345238095238093</v>
       </c>
     </row>
@@ -10007,7 +9981,7 @@
         <v>36</v>
       </c>
       <c r="H323">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9175257731958766</v>
       </c>
     </row>
@@ -10034,7 +10008,7 @@
         <v>35</v>
       </c>
       <c r="H324">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2484472049689441</v>
       </c>
     </row>
@@ -10061,7 +10035,7 @@
         <v>36</v>
       </c>
       <c r="H325">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2041884816753927</v>
       </c>
     </row>
@@ -10088,7 +10062,7 @@
         <v>35</v>
       </c>
       <c r="H326">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.0116279069767442</v>
       </c>
     </row>
@@ -10115,7 +10089,7 @@
         <v>36</v>
       </c>
       <c r="H327">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4374999999999996</v>
       </c>
     </row>
@@ -10142,7 +10116,7 @@
         <v>35</v>
       </c>
       <c r="H328">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9521276595744681</v>
       </c>
     </row>
@@ -10169,7 +10143,7 @@
         <v>36</v>
       </c>
       <c r="H329">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8092783505154642</v>
       </c>
     </row>
@@ -10196,7 +10170,7 @@
         <v>35</v>
       </c>
       <c r="H330">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2705882352941176</v>
       </c>
     </row>
@@ -10223,7 +10197,7 @@
         <v>36</v>
       </c>
       <c r="H331">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.8195121951219511</v>
       </c>
     </row>
@@ -10250,7 +10224,7 @@
         <v>35</v>
       </c>
       <c r="H332">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1</v>
       </c>
     </row>
@@ -10277,7 +10251,7 @@
         <v>36</v>
       </c>
       <c r="H333">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2096774193548385</v>
       </c>
     </row>
@@ -10304,7 +10278,7 @@
         <v>35</v>
       </c>
       <c r="H334">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1046511627906979</v>
       </c>
     </row>
@@ -10331,7 +10305,7 @@
         <v>36</v>
       </c>
       <c r="H335">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>1.9040404040404042</v>
       </c>
     </row>
@@ -10358,7 +10332,7 @@
         <v>35</v>
       </c>
       <c r="H336">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.3647058823529412</v>
       </c>
     </row>
@@ -10385,7 +10359,7 @@
         <v>36</v>
       </c>
       <c r="H337">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2378378378378376</v>
       </c>
     </row>
@@ -10412,7 +10386,7 @@
         <v>35</v>
       </c>
       <c r="H338">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2138364779874213</v>
       </c>
     </row>
@@ -10439,7 +10413,7 @@
         <v>36</v>
       </c>
       <c r="H339">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1368421052631579</v>
       </c>
     </row>
@@ -10466,7 +10440,7 @@
         <v>35</v>
       </c>
       <c r="H340">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2045454545454541</v>
       </c>
     </row>
@@ -10493,7 +10467,7 @@
         <v>36</v>
       </c>
       <c r="H341">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2677595628415301</v>
       </c>
     </row>
@@ -10520,7 +10494,7 @@
         <v>35</v>
       </c>
       <c r="H342">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.2807017543859649</v>
       </c>
     </row>
@@ -10547,7 +10521,7 @@
         <v>36</v>
       </c>
       <c r="H343">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.4500000000000002</v>
       </c>
     </row>
@@ -10574,7 +10548,7 @@
         <v>35</v>
       </c>
       <c r="H344">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.1508379888268156</v>
       </c>
     </row>
@@ -10601,7 +10575,7 @@
         <v>36</v>
       </c>
       <c r="H345">
-        <f>[1]!penguins[[#This Row],[bill_length_mm]]/[1]!penguins[[#This Row],[bill_depth_mm]]</f>
+        <f>penguins[[#This Row],[bill_length_mm]]/penguins[[#This Row],[bill_depth_mm]]</f>
         <v>2.244791666666667</v>
       </c>
     </row>
@@ -10617,8 +10591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0375E5AF-24D5-4D69-97C2-135BFB76DACB}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H345"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -10660,7 +10634,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
@@ -10675,7 +10649,7 @@
       <c r="E2">
         <v>3400</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
       <c r="G2">
@@ -10686,7 +10660,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
@@ -10701,7 +10675,7 @@
       <c r="E3">
         <v>3600</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
       <c r="G3">
@@ -10712,7 +10686,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4">
@@ -10727,7 +10701,7 @@
       <c r="E4">
         <v>3800</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4">
@@ -10738,7 +10712,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
@@ -10753,7 +10727,7 @@
       <c r="E5">
         <v>3950</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
       <c r="G5">
@@ -10764,7 +10738,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
@@ -10779,7 +10753,7 @@
       <c r="E6">
         <v>3800</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6">
@@ -10790,7 +10764,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7">
@@ -10805,7 +10779,7 @@
       <c r="E7">
         <v>3800</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7">
@@ -10816,7 +10790,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -10831,7 +10805,7 @@
       <c r="E8">
         <v>3550</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="G8">
@@ -10842,7 +10816,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9">
@@ -10857,7 +10831,7 @@
       <c r="E9">
         <v>3200</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9">
@@ -10868,7 +10842,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -10883,7 +10857,7 @@
       <c r="E10">
         <v>3150</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10">
@@ -10894,7 +10868,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
@@ -10909,7 +10883,7 @@
       <c r="E11">
         <v>3950</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11">
@@ -10920,7 +10894,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
@@ -10935,7 +10909,7 @@
       <c r="E12">
         <v>3500</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12">
@@ -10946,7 +10920,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -10961,7 +10935,7 @@
       <c r="E13">
         <v>4300</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13">
@@ -10972,7 +10946,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
@@ -10987,7 +10961,7 @@
       <c r="E14">
         <v>3450</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>35</v>
       </c>
       <c r="G14">
@@ -10998,7 +10972,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15">
@@ -11013,7 +10987,7 @@
       <c r="E15">
         <v>4050</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
       <c r="G15">
@@ -11024,7 +10998,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -11039,7 +11013,7 @@
       <c r="E16">
         <v>2900</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
       <c r="G16">
@@ -11050,7 +11024,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17">
@@ -11065,7 +11039,7 @@
       <c r="E17">
         <v>3700</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>36</v>
       </c>
       <c r="G17">
@@ -11076,7 +11050,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
@@ -11091,7 +11065,7 @@
       <c r="E18">
         <v>3550</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>35</v>
       </c>
       <c r="G18">
@@ -11102,7 +11076,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19">
@@ -11117,7 +11091,7 @@
       <c r="E19">
         <v>3800</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>36</v>
       </c>
       <c r="G19">
@@ -11128,7 +11102,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20">
@@ -11143,7 +11117,7 @@
       <c r="E20">
         <v>2850</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>35</v>
       </c>
       <c r="G20">
@@ -11154,7 +11128,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21">
@@ -11169,7 +11143,7 @@
       <c r="E21">
         <v>3750</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21">
@@ -11180,7 +11154,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22">
@@ -11195,7 +11169,7 @@
       <c r="E22">
         <v>3150</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>35</v>
       </c>
       <c r="G22">
@@ -11206,7 +11180,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
@@ -11221,7 +11195,7 @@
       <c r="E23">
         <v>4400</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>36</v>
       </c>
       <c r="G23">
@@ -11232,7 +11206,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
@@ -11247,7 +11221,7 @@
       <c r="E24">
         <v>3600</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>35</v>
       </c>
       <c r="G24">
@@ -11258,7 +11232,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
@@ -11273,7 +11247,7 @@
       <c r="E25">
         <v>4050</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>36</v>
       </c>
       <c r="G25">
@@ -11284,7 +11258,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
@@ -11299,7 +11273,7 @@
       <c r="E26">
         <v>2850</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>35</v>
       </c>
       <c r="G26">
@@ -11310,7 +11284,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
@@ -11325,7 +11299,7 @@
       <c r="E27">
         <v>3950</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27">
@@ -11336,7 +11310,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -11351,7 +11325,7 @@
       <c r="E28">
         <v>3350</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>35</v>
       </c>
       <c r="G28">
@@ -11362,7 +11336,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
@@ -11377,7 +11351,7 @@
       <c r="E29">
         <v>4100</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29">
@@ -11388,7 +11362,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30">
@@ -11403,7 +11377,7 @@
       <c r="E30">
         <v>3725</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>35</v>
       </c>
       <c r="G30">
@@ -11414,7 +11388,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
@@ -11429,7 +11403,7 @@
       <c r="E31">
         <v>4725</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31">
@@ -11440,7 +11414,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32">
@@ -11455,7 +11429,7 @@
       <c r="E32">
         <v>3075</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>35</v>
       </c>
       <c r="G32">
@@ -11466,7 +11440,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33">
@@ -11481,7 +11455,7 @@
       <c r="E33">
         <v>4250</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
       <c r="G33">
@@ -11492,7 +11466,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
       <c r="B34">
@@ -11507,7 +11481,7 @@
       <c r="E34">
         <v>2925</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>35</v>
       </c>
       <c r="G34">
@@ -11518,7 +11492,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35">
@@ -11533,7 +11507,7 @@
       <c r="E35">
         <v>3550</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35">
@@ -11544,7 +11518,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
       <c r="B36">
@@ -11559,7 +11533,7 @@
       <c r="E36">
         <v>3750</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>35</v>
       </c>
       <c r="G36">
@@ -11570,7 +11544,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
       <c r="B37">
@@ -11585,7 +11559,7 @@
       <c r="E37">
         <v>3900</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>36</v>
       </c>
       <c r="G37">
@@ -11596,7 +11570,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
       <c r="B38">
@@ -11611,7 +11585,7 @@
       <c r="E38">
         <v>3175</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>35</v>
       </c>
       <c r="G38">
@@ -11622,7 +11596,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
       <c r="B39">
@@ -11637,7 +11611,7 @@
       <c r="E39">
         <v>4775</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>36</v>
       </c>
       <c r="G39">
@@ -11648,7 +11622,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40">
@@ -11663,7 +11637,7 @@
       <c r="E40">
         <v>3825</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>35</v>
       </c>
       <c r="G40">
@@ -11674,7 +11648,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
       <c r="B41">
@@ -11689,7 +11663,7 @@
       <c r="E41">
         <v>4600</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41">
@@ -11700,7 +11674,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42">
@@ -11715,7 +11689,7 @@
       <c r="E42">
         <v>3200</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>35</v>
       </c>
       <c r="G42">
@@ -11726,7 +11700,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43">
@@ -11741,7 +11715,7 @@
       <c r="E43">
         <v>4275</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>36</v>
       </c>
       <c r="G43">
@@ -11752,7 +11726,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
       <c r="B44">
@@ -11767,7 +11741,7 @@
       <c r="E44">
         <v>3900</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>35</v>
       </c>
       <c r="G44">
@@ -11778,7 +11752,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>27</v>
       </c>
       <c r="B45">
@@ -11793,7 +11767,7 @@
       <c r="E45">
         <v>4075</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>36</v>
       </c>
       <c r="G45">
@@ -11804,7 +11778,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46">
@@ -11819,7 +11793,7 @@
       <c r="E46">
         <v>4500</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>35</v>
       </c>
       <c r="G46">
@@ -11830,7 +11804,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47">
@@ -11845,7 +11819,7 @@
       <c r="E47">
         <v>5700</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>36</v>
       </c>
       <c r="G47">
@@ -11856,7 +11830,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48">
@@ -11871,7 +11845,7 @@
       <c r="E48">
         <v>4450</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>35</v>
       </c>
       <c r="G48">
@@ -11882,7 +11856,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49">
@@ -11897,7 +11871,7 @@
       <c r="E49">
         <v>5700</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>36</v>
       </c>
       <c r="G49">
@@ -11908,7 +11882,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>31</v>
       </c>
       <c r="B50">
@@ -11923,7 +11897,7 @@
       <c r="E50">
         <v>5400</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>36</v>
       </c>
       <c r="G50">
@@ -11934,7 +11908,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51">
@@ -11949,7 +11923,7 @@
       <c r="E51">
         <v>4550</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>35</v>
       </c>
       <c r="G51">
@@ -11960,7 +11934,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52">
@@ -11975,7 +11949,7 @@
       <c r="E52">
         <v>4800</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>35</v>
       </c>
       <c r="G52">
@@ -11986,7 +11960,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53">
@@ -12001,7 +11975,7 @@
       <c r="E53">
         <v>5200</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>36</v>
       </c>
       <c r="G53">
@@ -12012,7 +11986,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54">
@@ -12027,7 +12001,7 @@
       <c r="E54">
         <v>4400</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>35</v>
       </c>
       <c r="G54">
@@ -12038,7 +12012,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55">
@@ -12053,7 +12027,7 @@
       <c r="E55">
         <v>5150</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>36</v>
       </c>
       <c r="G55">
@@ -12064,7 +12038,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56">
@@ -12079,7 +12053,7 @@
       <c r="E56">
         <v>4650</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>35</v>
       </c>
       <c r="G56">
@@ -12090,7 +12064,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57">
@@ -12105,7 +12079,7 @@
       <c r="E57">
         <v>5550</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>36</v>
       </c>
       <c r="G57">
@@ -12116,7 +12090,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>31</v>
       </c>
       <c r="B58">
@@ -12131,7 +12105,7 @@
       <c r="E58">
         <v>4650</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>35</v>
       </c>
       <c r="G58">
@@ -12142,7 +12116,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59">
@@ -12157,7 +12131,7 @@
       <c r="E59">
         <v>5850</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>36</v>
       </c>
       <c r="G59">
@@ -12168,7 +12142,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>31</v>
       </c>
       <c r="B60">
@@ -12183,7 +12157,7 @@
       <c r="E60">
         <v>4200</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>35</v>
       </c>
       <c r="G60">
@@ -12194,7 +12168,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>31</v>
       </c>
       <c r="B61">
@@ -12209,7 +12183,7 @@
       <c r="E61">
         <v>5850</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" t="s">
         <v>36</v>
       </c>
       <c r="G61">
@@ -12220,7 +12194,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>31</v>
       </c>
       <c r="B62">
@@ -12235,7 +12209,7 @@
       <c r="E62">
         <v>4150</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>35</v>
       </c>
       <c r="G62">
@@ -12246,7 +12220,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
       <c r="B63">
@@ -12261,7 +12235,7 @@
       <c r="E63">
         <v>6300</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>36</v>
       </c>
       <c r="G63">
@@ -12272,7 +12246,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>31</v>
       </c>
       <c r="B64">
@@ -12287,7 +12261,7 @@
       <c r="E64">
         <v>4800</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>35</v>
       </c>
       <c r="G64">
@@ -12298,7 +12272,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>31</v>
       </c>
       <c r="B65">
@@ -12313,7 +12287,7 @@
       <c r="E65">
         <v>5350</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>36</v>
       </c>
       <c r="G65">
@@ -12324,7 +12298,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>31</v>
       </c>
       <c r="B66">
@@ -12339,7 +12313,7 @@
       <c r="E66">
         <v>5700</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>36</v>
       </c>
       <c r="G66">
@@ -12350,7 +12324,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>31</v>
       </c>
       <c r="B67">
@@ -12365,7 +12339,7 @@
       <c r="E67">
         <v>5000</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" t="s">
         <v>35</v>
       </c>
       <c r="G67">
@@ -12376,7 +12350,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68">
@@ -12391,7 +12365,7 @@
       <c r="E68">
         <v>4400</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>35</v>
       </c>
       <c r="G68">
@@ -12402,7 +12376,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>31</v>
       </c>
       <c r="B69">
@@ -12417,7 +12391,7 @@
       <c r="E69">
         <v>5050</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" t="s">
         <v>36</v>
       </c>
       <c r="G69">
@@ -12428,7 +12402,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70">
@@ -12443,7 +12417,7 @@
       <c r="E70">
         <v>5000</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" t="s">
         <v>35</v>
       </c>
       <c r="G70">
@@ -12454,7 +12428,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>31</v>
       </c>
       <c r="B71">
@@ -12469,7 +12443,7 @@
       <c r="E71">
         <v>5100</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" t="s">
         <v>36</v>
       </c>
       <c r="G71">
@@ -12480,7 +12454,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>31</v>
       </c>
       <c r="B72">
@@ -12495,7 +12469,7 @@
       <c r="E72">
         <v>4100</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
         <v>37</v>
       </c>
       <c r="G72">
@@ -12506,7 +12480,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>31</v>
       </c>
       <c r="B73">
@@ -12521,7 +12495,7 @@
       <c r="E73">
         <v>5650</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" t="s">
         <v>36</v>
       </c>
       <c r="G73">
@@ -12532,7 +12506,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>31</v>
       </c>
       <c r="B74">
@@ -12547,7 +12521,7 @@
       <c r="E74">
         <v>4600</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" t="s">
         <v>35</v>
       </c>
       <c r="G74">
@@ -12558,7 +12532,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>31</v>
       </c>
       <c r="B75">
@@ -12573,7 +12547,7 @@
       <c r="E75">
         <v>5550</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" t="s">
         <v>36</v>
       </c>
       <c r="G75">
@@ -12584,7 +12558,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>31</v>
       </c>
       <c r="B76">
@@ -12599,7 +12573,7 @@
       <c r="E76">
         <v>5250</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" t="s">
         <v>36</v>
       </c>
       <c r="G76">
@@ -12610,7 +12584,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>31</v>
       </c>
       <c r="B77">
@@ -12625,7 +12599,7 @@
       <c r="E77">
         <v>4700</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" t="s">
         <v>35</v>
       </c>
       <c r="G77">
@@ -12636,7 +12610,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>31</v>
       </c>
       <c r="B78">
@@ -12651,7 +12625,7 @@
       <c r="E78">
         <v>5050</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" t="s">
         <v>35</v>
       </c>
       <c r="G78">
@@ -12662,7 +12636,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79">
@@ -12677,7 +12651,7 @@
       <c r="E79">
         <v>6050</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" t="s">
         <v>36</v>
       </c>
       <c r="G79">
@@ -12688,7 +12662,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="B80">
@@ -12703,7 +12677,7 @@
       <c r="E80">
         <v>5150</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" t="s">
         <v>35</v>
       </c>
       <c r="G80">
@@ -12714,7 +12688,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>31</v>
       </c>
       <c r="B81">
@@ -12729,7 +12703,7 @@
       <c r="E81">
         <v>5400</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>36</v>
       </c>
       <c r="G81">
@@ -12740,7 +12714,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="B82">
@@ -12755,7 +12729,7 @@
       <c r="E82">
         <v>4950</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" t="s">
         <v>35</v>
       </c>
       <c r="G82">
@@ -12766,7 +12740,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="B83">
@@ -12781,7 +12755,7 @@
       <c r="E83">
         <v>5250</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" t="s">
         <v>36</v>
       </c>
       <c r="G83">
@@ -12792,7 +12766,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
       <c r="B84">
@@ -12807,7 +12781,7 @@
       <c r="E84">
         <v>4350</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" t="s">
         <v>35</v>
       </c>
       <c r="G84">
@@ -12818,7 +12792,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
       <c r="B85">
@@ -12833,7 +12807,7 @@
       <c r="E85">
         <v>5350</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" t="s">
         <v>36</v>
       </c>
       <c r="G85">
@@ -12844,7 +12818,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>31</v>
       </c>
       <c r="B86">
@@ -12859,7 +12833,7 @@
       <c r="E86">
         <v>3950</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" t="s">
         <v>35</v>
       </c>
       <c r="G86">
@@ -12870,7 +12844,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>31</v>
       </c>
       <c r="B87">
@@ -12885,7 +12859,7 @@
       <c r="E87">
         <v>5700</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" t="s">
         <v>36</v>
       </c>
       <c r="G87">
@@ -12896,7 +12870,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>31</v>
       </c>
       <c r="B88">
@@ -12911,7 +12885,7 @@
       <c r="E88">
         <v>4300</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" t="s">
         <v>35</v>
       </c>
       <c r="G88">
@@ -12922,7 +12896,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>31</v>
       </c>
       <c r="B89">
@@ -12937,7 +12911,7 @@
       <c r="E89">
         <v>4750</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" t="s">
         <v>36</v>
       </c>
       <c r="G89">
@@ -12948,7 +12922,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>31</v>
       </c>
       <c r="B90">
@@ -12963,7 +12937,7 @@
       <c r="E90">
         <v>5550</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" t="s">
         <v>36</v>
       </c>
       <c r="G90">
@@ -12974,7 +12948,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>31</v>
       </c>
       <c r="B91">
@@ -12989,7 +12963,7 @@
       <c r="E91">
         <v>4900</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" t="s">
         <v>35</v>
       </c>
       <c r="G91">
@@ -13000,7 +12974,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>31</v>
       </c>
       <c r="B92">
@@ -13015,7 +12989,7 @@
       <c r="E92">
         <v>4200</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" t="s">
         <v>35</v>
       </c>
       <c r="G92">
@@ -13026,7 +13000,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>31</v>
       </c>
       <c r="B93">
@@ -13041,7 +13015,7 @@
       <c r="E93">
         <v>5400</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" t="s">
         <v>36</v>
       </c>
       <c r="G93">
@@ -13052,7 +13026,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>31</v>
       </c>
       <c r="B94">
@@ -13067,7 +13041,7 @@
       <c r="E94">
         <v>5100</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" t="s">
         <v>35</v>
       </c>
       <c r="G94">
@@ -13078,7 +13052,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>31</v>
       </c>
       <c r="B95">
@@ -13093,7 +13067,7 @@
       <c r="E95">
         <v>5300</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" t="s">
         <v>36</v>
       </c>
       <c r="G95">
@@ -13104,7 +13078,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>31</v>
       </c>
       <c r="B96">
@@ -13119,7 +13093,7 @@
       <c r="E96">
         <v>4850</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" t="s">
         <v>35</v>
       </c>
       <c r="G96">
@@ -13130,7 +13104,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>31</v>
       </c>
       <c r="B97">
@@ -13145,7 +13119,7 @@
       <c r="E97">
         <v>5300</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" t="s">
         <v>36</v>
       </c>
       <c r="G97">
@@ -13156,7 +13130,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>31</v>
       </c>
       <c r="B98">
@@ -13171,7 +13145,7 @@
       <c r="E98">
         <v>4400</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" t="s">
         <v>35</v>
       </c>
       <c r="G98">
@@ -13182,7 +13156,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>31</v>
       </c>
       <c r="B99">
@@ -13197,7 +13171,7 @@
       <c r="E99">
         <v>5000</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" t="s">
         <v>36</v>
       </c>
       <c r="G99">
@@ -13208,7 +13182,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>31</v>
       </c>
       <c r="B100">
@@ -13223,7 +13197,7 @@
       <c r="E100">
         <v>4900</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" t="s">
         <v>35</v>
       </c>
       <c r="G100">
@@ -13234,7 +13208,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>31</v>
       </c>
       <c r="B101">
@@ -13249,7 +13223,7 @@
       <c r="E101">
         <v>5050</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" t="s">
         <v>36</v>
       </c>
       <c r="G101">
@@ -13260,7 +13234,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>31</v>
       </c>
       <c r="B102">
@@ -13275,7 +13249,7 @@
       <c r="E102">
         <v>4300</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" t="s">
         <v>35</v>
       </c>
       <c r="G102">
@@ -13286,7 +13260,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>31</v>
       </c>
       <c r="B103">
@@ -13301,7 +13275,7 @@
       <c r="E103">
         <v>5000</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" t="s">
         <v>36</v>
       </c>
       <c r="G103">
@@ -13312,7 +13286,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>31</v>
       </c>
       <c r="B104">
@@ -13327,7 +13301,7 @@
       <c r="E104">
         <v>4450</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" t="s">
         <v>35</v>
       </c>
       <c r="G104">
@@ -13338,7 +13312,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>31</v>
       </c>
       <c r="B105">
@@ -13353,7 +13327,7 @@
       <c r="E105">
         <v>5550</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" t="s">
         <v>36</v>
       </c>
       <c r="G105">
@@ -13364,7 +13338,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>31</v>
       </c>
       <c r="B106">
@@ -13379,7 +13353,7 @@
       <c r="E106">
         <v>4200</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" t="s">
         <v>35</v>
       </c>
       <c r="G106">
@@ -13390,7 +13364,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>31</v>
       </c>
       <c r="B107">
@@ -13405,7 +13379,7 @@
       <c r="E107">
         <v>5300</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" t="s">
         <v>36</v>
       </c>
       <c r="G107">
@@ -13416,7 +13390,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>31</v>
       </c>
       <c r="B108">
@@ -13431,7 +13405,7 @@
       <c r="E108">
         <v>4400</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" t="s">
         <v>35</v>
       </c>
       <c r="G108">
@@ -13442,7 +13416,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>31</v>
       </c>
       <c r="B109">
@@ -13457,7 +13431,7 @@
       <c r="E109">
         <v>5650</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" t="s">
         <v>36</v>
       </c>
       <c r="G109">
@@ -13468,7 +13442,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>31</v>
       </c>
       <c r="B110">
@@ -13483,7 +13457,7 @@
       <c r="E110">
         <v>4700</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" t="s">
         <v>35</v>
       </c>
       <c r="G110">
@@ -13494,7 +13468,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>31</v>
       </c>
       <c r="B111">
@@ -13509,7 +13483,7 @@
       <c r="E111">
         <v>5700</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" t="s">
         <v>36</v>
       </c>
       <c r="G111">
@@ -13520,7 +13494,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>31</v>
       </c>
       <c r="B112">
@@ -13535,7 +13509,7 @@
       <c r="E112">
         <v>4650</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" t="s">
         <v>37</v>
       </c>
       <c r="G112">
@@ -13546,7 +13520,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>31</v>
       </c>
       <c r="B113">
@@ -13561,7 +13535,7 @@
       <c r="E113">
         <v>5800</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" t="s">
         <v>36</v>
       </c>
       <c r="G113">
@@ -13572,7 +13546,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>31</v>
       </c>
       <c r="B114">
@@ -13587,7 +13561,7 @@
       <c r="E114">
         <v>4700</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" t="s">
         <v>35</v>
       </c>
       <c r="G114">
@@ -13598,7 +13572,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>31</v>
       </c>
       <c r="B115">
@@ -13613,7 +13587,7 @@
       <c r="E115">
         <v>5550</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" t="s">
         <v>36</v>
       </c>
       <c r="G115">
@@ -13624,7 +13598,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>31</v>
       </c>
       <c r="B116">
@@ -13639,7 +13613,7 @@
       <c r="E116">
         <v>4750</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" t="s">
         <v>35</v>
       </c>
       <c r="G116">
@@ -13650,7 +13624,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>31</v>
       </c>
       <c r="B117">
@@ -13665,7 +13639,7 @@
       <c r="E117">
         <v>5000</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" t="s">
         <v>36</v>
       </c>
       <c r="G117">
@@ -13676,7 +13650,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>31</v>
       </c>
       <c r="B118">
@@ -13691,7 +13665,7 @@
       <c r="E118">
         <v>5100</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" t="s">
         <v>36</v>
       </c>
       <c r="G118">
@@ -13702,7 +13676,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>31</v>
       </c>
       <c r="B119">
@@ -13717,7 +13691,7 @@
       <c r="E119">
         <v>5200</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" t="s">
         <v>35</v>
       </c>
       <c r="G119">
@@ -13728,7 +13702,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>31</v>
       </c>
       <c r="B120">
@@ -13743,7 +13717,7 @@
       <c r="E120">
         <v>4700</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" t="s">
         <v>35</v>
       </c>
       <c r="G120">
@@ -13754,7 +13728,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>31</v>
       </c>
       <c r="B121">
@@ -13769,7 +13743,7 @@
       <c r="E121">
         <v>5800</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" t="s">
         <v>36</v>
       </c>
       <c r="G121">
@@ -13780,7 +13754,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>31</v>
       </c>
       <c r="B122">
@@ -13795,7 +13769,7 @@
       <c r="E122">
         <v>4600</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" t="s">
         <v>35</v>
       </c>
       <c r="G122">
@@ -13806,7 +13780,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>31</v>
       </c>
       <c r="B123">
@@ -13821,7 +13795,7 @@
       <c r="E123">
         <v>6000</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" t="s">
         <v>36</v>
       </c>
       <c r="G123">
@@ -13832,7 +13806,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>31</v>
       </c>
       <c r="B124">
@@ -13847,7 +13821,7 @@
       <c r="E124">
         <v>4750</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" t="s">
         <v>35</v>
       </c>
       <c r="G124">
@@ -13858,7 +13832,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>31</v>
       </c>
       <c r="B125">
@@ -13873,7 +13847,7 @@
       <c r="E125">
         <v>5950</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" t="s">
         <v>36</v>
       </c>
       <c r="G125">
@@ -13884,7 +13858,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>31</v>
       </c>
       <c r="B126">
@@ -13899,7 +13873,7 @@
       <c r="E126">
         <v>4625</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" t="s">
         <v>35</v>
       </c>
       <c r="G126">
@@ -13910,7 +13884,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>31</v>
       </c>
       <c r="B127">
@@ -13925,7 +13899,7 @@
       <c r="E127">
         <v>5450</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" t="s">
         <v>36</v>
       </c>
       <c r="G127">
@@ -13936,7 +13910,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>31</v>
       </c>
       <c r="B128">
@@ -13951,7 +13925,7 @@
       <c r="E128">
         <v>4725</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" t="s">
         <v>35</v>
       </c>
       <c r="G128">
@@ -13962,7 +13936,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>31</v>
       </c>
       <c r="B129">
@@ -13977,7 +13951,7 @@
       <c r="E129">
         <v>5350</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" t="s">
         <v>36</v>
       </c>
       <c r="G129">
@@ -13988,7 +13962,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>31</v>
       </c>
       <c r="B130">
@@ -14003,7 +13977,7 @@
       <c r="E130">
         <v>4750</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" t="s">
         <v>35</v>
       </c>
       <c r="G130">
@@ -14014,7 +13988,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>31</v>
       </c>
       <c r="B131">
@@ -14029,7 +14003,7 @@
       <c r="E131">
         <v>5600</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" t="s">
         <v>36</v>
       </c>
       <c r="G131">
@@ -14040,7 +14014,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>31</v>
       </c>
       <c r="B132">
@@ -14055,7 +14029,7 @@
       <c r="E132">
         <v>4600</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" t="s">
         <v>35</v>
       </c>
       <c r="G132">
@@ -14066,7 +14040,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>31</v>
       </c>
       <c r="B133">
@@ -14081,7 +14055,7 @@
       <c r="E133">
         <v>5300</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" t="s">
         <v>36</v>
       </c>
       <c r="G133">
@@ -14092,7 +14066,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>31</v>
       </c>
       <c r="B134">
@@ -14107,7 +14081,7 @@
       <c r="E134">
         <v>4875</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" t="s">
         <v>35</v>
       </c>
       <c r="G134">
@@ -14118,7 +14092,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>31</v>
       </c>
       <c r="B135">
@@ -14133,7 +14107,7 @@
       <c r="E135">
         <v>5550</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" t="s">
         <v>36</v>
       </c>
       <c r="G135">
@@ -14144,7 +14118,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>31</v>
       </c>
       <c r="B136">
@@ -14159,7 +14133,7 @@
       <c r="E136">
         <v>4950</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" t="s">
         <v>35</v>
       </c>
       <c r="G136">
@@ -14170,7 +14144,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>31</v>
       </c>
       <c r="B137">
@@ -14185,7 +14159,7 @@
       <c r="E137">
         <v>5400</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" t="s">
         <v>36</v>
       </c>
       <c r="G137">
@@ -14196,7 +14170,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
       <c r="B138">
@@ -14211,7 +14185,7 @@
       <c r="E138">
         <v>4750</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" t="s">
         <v>35</v>
       </c>
       <c r="G138">
@@ -14222,7 +14196,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>31</v>
       </c>
       <c r="B139">
@@ -14237,7 +14211,7 @@
       <c r="E139">
         <v>5650</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" t="s">
         <v>36</v>
       </c>
       <c r="G139">
@@ -14248,7 +14222,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>31</v>
       </c>
       <c r="B140">
@@ -14263,7 +14237,7 @@
       <c r="E140">
         <v>4850</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" t="s">
         <v>35</v>
       </c>
       <c r="G140">
@@ -14274,7 +14248,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>31</v>
       </c>
       <c r="B141">
@@ -14289,7 +14263,7 @@
       <c r="E141">
         <v>5200</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" t="s">
         <v>36</v>
       </c>
       <c r="G141">
@@ -14300,7 +14274,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>31</v>
       </c>
       <c r="B142">
@@ -14315,7 +14289,7 @@
       <c r="E142">
         <v>4925</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" t="s">
         <v>36</v>
       </c>
       <c r="G142">
@@ -14326,7 +14300,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>31</v>
       </c>
       <c r="B143">
@@ -14341,7 +14315,7 @@
       <c r="E143">
         <v>4875</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" t="s">
         <v>35</v>
       </c>
       <c r="G143">
@@ -14352,7 +14326,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>31</v>
       </c>
       <c r="B144">
@@ -14367,7 +14341,7 @@
       <c r="E144">
         <v>4625</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" t="s">
         <v>35</v>
       </c>
       <c r="G144">
@@ -14378,7 +14352,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>31</v>
       </c>
       <c r="B145">
@@ -14393,7 +14367,7 @@
       <c r="E145">
         <v>5250</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" t="s">
         <v>36</v>
       </c>
       <c r="G145">
@@ -14404,7 +14378,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>31</v>
       </c>
       <c r="B146">
@@ -14419,7 +14393,7 @@
       <c r="E146">
         <v>4850</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" t="s">
         <v>35</v>
       </c>
       <c r="G146">
@@ -14430,7 +14404,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>31</v>
       </c>
       <c r="B147">
@@ -14445,7 +14419,7 @@
       <c r="E147">
         <v>5600</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" t="s">
         <v>36</v>
       </c>
       <c r="G147">
@@ -14456,7 +14430,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>31</v>
       </c>
       <c r="B148">
@@ -14471,7 +14445,7 @@
       <c r="E148">
         <v>4975</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" t="s">
         <v>35</v>
       </c>
       <c r="G148">
@@ -14482,7 +14456,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>31</v>
       </c>
       <c r="B149">
@@ -14497,7 +14471,7 @@
       <c r="E149">
         <v>5500</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" t="s">
         <v>36</v>
       </c>
       <c r="G149">
@@ -14508,7 +14482,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>31</v>
       </c>
       <c r="B150">
@@ -14523,7 +14497,7 @@
       <c r="E150">
         <v>4725</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" t="s">
         <v>37</v>
       </c>
       <c r="G150">
@@ -14534,7 +14508,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>31</v>
       </c>
       <c r="B151">
@@ -14549,7 +14523,7 @@
       <c r="E151">
         <v>5500</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" t="s">
         <v>36</v>
       </c>
       <c r="G151">
@@ -14560,7 +14534,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>31</v>
       </c>
       <c r="B152">
@@ -14575,7 +14549,7 @@
       <c r="E152">
         <v>4700</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F152" t="s">
         <v>35</v>
       </c>
       <c r="G152">
@@ -14586,7 +14560,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>31</v>
       </c>
       <c r="B153">
@@ -14601,7 +14575,7 @@
       <c r="E153">
         <v>5500</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" t="s">
         <v>36</v>
       </c>
       <c r="G153">
@@ -14612,7 +14586,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>31</v>
       </c>
       <c r="B154">
@@ -14627,7 +14601,7 @@
       <c r="E154">
         <v>4575</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" t="s">
         <v>35</v>
       </c>
       <c r="G154">
@@ -14638,7 +14612,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>31</v>
       </c>
       <c r="B155">
@@ -14653,7 +14627,7 @@
       <c r="E155">
         <v>5500</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" t="s">
         <v>36</v>
       </c>
       <c r="G155">
@@ -14664,7 +14638,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>31</v>
       </c>
       <c r="B156">
@@ -14679,7 +14653,7 @@
       <c r="E156">
         <v>5000</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="F156" t="s">
         <v>35</v>
       </c>
       <c r="G156">
@@ -14690,7 +14664,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>31</v>
       </c>
       <c r="B157">
@@ -14705,7 +14679,7 @@
       <c r="E157">
         <v>5950</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F157" t="s">
         <v>36</v>
       </c>
       <c r="G157">
@@ -14716,7 +14690,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>31</v>
       </c>
       <c r="B158">
@@ -14731,7 +14705,7 @@
       <c r="E158">
         <v>4650</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F158" t="s">
         <v>35</v>
       </c>
       <c r="G158">
@@ -14742,7 +14716,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>31</v>
       </c>
       <c r="B159">
@@ -14757,7 +14731,7 @@
       <c r="E159">
         <v>5500</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" t="s">
         <v>36</v>
       </c>
       <c r="G159">
@@ -14768,7 +14742,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>31</v>
       </c>
       <c r="B160">
@@ -14783,7 +14757,7 @@
       <c r="E160">
         <v>4375</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F160" t="s">
         <v>35</v>
       </c>
       <c r="G160">
@@ -14794,7 +14768,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>31</v>
       </c>
       <c r="B161">
@@ -14809,7 +14783,7 @@
       <c r="E161">
         <v>5850</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" t="s">
         <v>36</v>
       </c>
       <c r="G161">
@@ -14820,7 +14794,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>31</v>
       </c>
       <c r="B162">
@@ -14835,7 +14809,7 @@
       <c r="E162">
         <v>4875</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" t="s">
         <v>37</v>
       </c>
       <c r="G162">
@@ -14846,7 +14820,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>31</v>
       </c>
       <c r="B163">
@@ -14861,7 +14835,7 @@
       <c r="E163">
         <v>6000</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" t="s">
         <v>36</v>
       </c>
       <c r="G163">
@@ -14872,7 +14846,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A164" s="2" t="s">
+      <c r="A164" t="s">
         <v>31</v>
       </c>
       <c r="B164">
@@ -14887,7 +14861,7 @@
       <c r="E164">
         <v>4925</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" t="s">
         <v>35</v>
       </c>
       <c r="G164">
@@ -14898,10 +14872,10 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A165" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F165" s="2" t="s">
+      <c r="A165" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" t="s">
         <v>37</v>
       </c>
       <c r="H165">
@@ -14909,7 +14883,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>31</v>
       </c>
       <c r="B166">
@@ -14924,7 +14898,7 @@
       <c r="E166">
         <v>4850</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F166" t="s">
         <v>35</v>
       </c>
       <c r="G166">
@@ -14935,7 +14909,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>31</v>
       </c>
       <c r="B167">
@@ -14950,7 +14924,7 @@
       <c r="E167">
         <v>5750</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="F167" t="s">
         <v>36</v>
       </c>
       <c r="G167">
@@ -14961,7 +14935,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A168" s="2" t="s">
+      <c r="A168" t="s">
         <v>31</v>
       </c>
       <c r="B168">
@@ -14976,7 +14950,7 @@
       <c r="E168">
         <v>5200</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F168" t="s">
         <v>35</v>
       </c>
       <c r="G168">
@@ -14987,7 +14961,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A169" s="2" t="s">
+      <c r="A169" t="s">
         <v>31</v>
       </c>
       <c r="B169">
@@ -15002,7 +14976,7 @@
       <c r="E169">
         <v>5400</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F169" t="s">
         <v>36</v>
       </c>
       <c r="G169">
@@ -15013,7 +14987,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>27</v>
       </c>
       <c r="B170">
@@ -15028,7 +15002,7 @@
       <c r="E170">
         <v>3250</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="F170" t="s">
         <v>35</v>
       </c>
       <c r="G170">
@@ -15039,7 +15013,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>27</v>
       </c>
       <c r="B171">
@@ -15054,7 +15028,7 @@
       <c r="E171">
         <v>3900</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F171" t="s">
         <v>36</v>
       </c>
       <c r="G171">
@@ -15065,7 +15039,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>27</v>
       </c>
       <c r="B172">
@@ -15080,7 +15054,7 @@
       <c r="E172">
         <v>3300</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F172" t="s">
         <v>35</v>
       </c>
       <c r="G172">
@@ -15091,7 +15065,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A173" s="2" t="s">
+      <c r="A173" t="s">
         <v>27</v>
       </c>
       <c r="B173">
@@ -15106,7 +15080,7 @@
       <c r="E173">
         <v>3900</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F173" t="s">
         <v>36</v>
       </c>
       <c r="G173">
@@ -15117,7 +15091,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A174" s="2" t="s">
+      <c r="A174" t="s">
         <v>27</v>
       </c>
       <c r="B174">
@@ -15132,7 +15106,7 @@
       <c r="E174">
         <v>3325</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F174" t="s">
         <v>35</v>
       </c>
       <c r="G174">
@@ -15143,7 +15117,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>27</v>
       </c>
       <c r="B175">
@@ -15158,7 +15132,7 @@
       <c r="E175">
         <v>4150</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F175" t="s">
         <v>36</v>
       </c>
       <c r="G175">
@@ -15169,7 +15143,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>27</v>
       </c>
       <c r="B176">
@@ -15184,7 +15158,7 @@
       <c r="E176">
         <v>3950</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F176" t="s">
         <v>36</v>
       </c>
       <c r="G176">
@@ -15195,7 +15169,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>27</v>
       </c>
       <c r="B177">
@@ -15210,7 +15184,7 @@
       <c r="E177">
         <v>3550</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" t="s">
         <v>35</v>
       </c>
       <c r="G177">
@@ -15221,7 +15195,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>27</v>
       </c>
       <c r="B178">
@@ -15236,7 +15210,7 @@
       <c r="E178">
         <v>3300</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F178" t="s">
         <v>35</v>
       </c>
       <c r="G178">
@@ -15247,7 +15221,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A179" s="2" t="s">
+      <c r="A179" t="s">
         <v>27</v>
       </c>
       <c r="B179">
@@ -15262,7 +15236,7 @@
       <c r="E179">
         <v>4650</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F179" t="s">
         <v>36</v>
       </c>
       <c r="G179">
@@ -15273,7 +15247,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>27</v>
       </c>
       <c r="B180">
@@ -15288,7 +15262,7 @@
       <c r="E180">
         <v>3150</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F180" t="s">
         <v>35</v>
       </c>
       <c r="G180">
@@ -15299,7 +15273,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>27</v>
       </c>
       <c r="B181">
@@ -15314,7 +15288,7 @@
       <c r="E181">
         <v>3900</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" t="s">
         <v>36</v>
       </c>
       <c r="G181">
@@ -15325,7 +15299,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>27</v>
       </c>
       <c r="B182">
@@ -15340,7 +15314,7 @@
       <c r="E182">
         <v>3100</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F182" t="s">
         <v>35</v>
       </c>
       <c r="G182">
@@ -15351,7 +15325,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>27</v>
       </c>
       <c r="B183">
@@ -15366,7 +15340,7 @@
       <c r="E183">
         <v>4400</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F183" t="s">
         <v>36</v>
       </c>
       <c r="G183">
@@ -15377,7 +15351,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>27</v>
       </c>
       <c r="B184">
@@ -15392,7 +15366,7 @@
       <c r="E184">
         <v>3000</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="F184" t="s">
         <v>35</v>
       </c>
       <c r="G184">
@@ -15403,7 +15377,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>27</v>
       </c>
       <c r="B185">
@@ -15418,7 +15392,7 @@
       <c r="E185">
         <v>4600</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="F185" t="s">
         <v>36</v>
       </c>
       <c r="G185">
@@ -15429,7 +15403,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>27</v>
       </c>
       <c r="B186">
@@ -15444,7 +15418,7 @@
       <c r="E186">
         <v>3425</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F186" t="s">
         <v>36</v>
       </c>
       <c r="G186">
@@ -15455,7 +15429,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>27</v>
       </c>
       <c r="B187">
@@ -15470,7 +15444,7 @@
       <c r="E187">
         <v>2975</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" t="s">
         <v>37</v>
       </c>
       <c r="G187">
@@ -15481,7 +15455,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>27</v>
       </c>
       <c r="B188">
@@ -15496,7 +15470,7 @@
       <c r="E188">
         <v>3450</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F188" t="s">
         <v>35</v>
       </c>
       <c r="G188">
@@ -15507,7 +15481,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>27</v>
       </c>
       <c r="B189">
@@ -15522,7 +15496,7 @@
       <c r="E189">
         <v>4150</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="F189" t="s">
         <v>36</v>
       </c>
       <c r="G189">
@@ -15533,7 +15507,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>27</v>
       </c>
       <c r="B190">
@@ -15548,7 +15522,7 @@
       <c r="E190">
         <v>3350</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F190" t="s">
         <v>35</v>
       </c>
       <c r="G190">
@@ -15559,7 +15533,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>27</v>
       </c>
       <c r="B191">
@@ -15574,7 +15548,7 @@
       <c r="E191">
         <v>3550</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F191" t="s">
         <v>36</v>
       </c>
       <c r="G191">
@@ -15585,7 +15559,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>27</v>
       </c>
       <c r="B192">
@@ -15600,7 +15574,7 @@
       <c r="E192">
         <v>3800</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="F192" t="s">
         <v>36</v>
       </c>
       <c r="G192">
@@ -15611,7 +15585,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>27</v>
       </c>
       <c r="B193">
@@ -15626,7 +15600,7 @@
       <c r="E193">
         <v>3500</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="F193" t="s">
         <v>35</v>
       </c>
       <c r="G193">
@@ -15637,7 +15611,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>27</v>
       </c>
       <c r="B194">
@@ -15652,7 +15626,7 @@
       <c r="E194">
         <v>3950</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="F194" t="s">
         <v>36</v>
       </c>
       <c r="G194">
@@ -15663,7 +15637,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>27</v>
       </c>
       <c r="B195">
@@ -15678,7 +15652,7 @@
       <c r="E195">
         <v>3600</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="F195" t="s">
         <v>35</v>
       </c>
       <c r="G195">
@@ -15689,7 +15663,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>27</v>
       </c>
       <c r="B196">
@@ -15704,7 +15678,7 @@
       <c r="E196">
         <v>3550</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F196" t="s">
         <v>35</v>
       </c>
       <c r="G196">
@@ -15715,7 +15689,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>27</v>
       </c>
       <c r="B197">
@@ -15730,7 +15704,7 @@
       <c r="E197">
         <v>4300</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="F197" t="s">
         <v>36</v>
       </c>
       <c r="G197">
@@ -15741,7 +15715,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
         <v>27</v>
       </c>
       <c r="B198">
@@ -15756,7 +15730,7 @@
       <c r="E198">
         <v>3400</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="F198" t="s">
         <v>35</v>
       </c>
       <c r="G198">
@@ -15767,7 +15741,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A199" s="2" t="s">
+      <c r="A199" t="s">
         <v>27</v>
       </c>
       <c r="B199">
@@ -15782,7 +15756,7 @@
       <c r="E199">
         <v>4450</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="F199" t="s">
         <v>36</v>
       </c>
       <c r="G199">
@@ -15793,7 +15767,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>27</v>
       </c>
       <c r="B200">
@@ -15808,7 +15782,7 @@
       <c r="E200">
         <v>3300</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" t="s">
         <v>35</v>
       </c>
       <c r="G200">
@@ -15819,7 +15793,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>27</v>
       </c>
       <c r="B201">
@@ -15834,7 +15808,7 @@
       <c r="E201">
         <v>4300</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F201" t="s">
         <v>36</v>
       </c>
       <c r="G201">
@@ -15845,7 +15819,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>27</v>
       </c>
       <c r="B202">
@@ -15860,7 +15834,7 @@
       <c r="E202">
         <v>3700</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="F202" t="s">
         <v>35</v>
       </c>
       <c r="G202">
@@ -15871,7 +15845,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
         <v>27</v>
       </c>
       <c r="B203">
@@ -15886,7 +15860,7 @@
       <c r="E203">
         <v>4350</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="F203" t="s">
         <v>36</v>
       </c>
       <c r="G203">
@@ -15897,7 +15871,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A204" s="2" t="s">
+      <c r="A204" t="s">
         <v>27</v>
       </c>
       <c r="B204">
@@ -15912,7 +15886,7 @@
       <c r="E204">
         <v>2900</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="F204" t="s">
         <v>35</v>
       </c>
       <c r="G204">
@@ -15923,7 +15897,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>27</v>
       </c>
       <c r="B205">
@@ -15938,7 +15912,7 @@
       <c r="E205">
         <v>4100</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="F205" t="s">
         <v>36</v>
       </c>
       <c r="G205">
@@ -15949,7 +15923,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>27</v>
       </c>
       <c r="B206">
@@ -15964,7 +15938,7 @@
       <c r="E206">
         <v>3500</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="F206" t="s">
         <v>35</v>
       </c>
       <c r="G206">
@@ -15975,7 +15949,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>27</v>
       </c>
       <c r="B207">
@@ -15990,7 +15964,7 @@
       <c r="E207">
         <v>4475</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="F207" t="s">
         <v>36</v>
       </c>
       <c r="G207">
@@ -16001,7 +15975,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>27</v>
       </c>
       <c r="B208">
@@ -16016,7 +15990,7 @@
       <c r="E208">
         <v>3425</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F208" t="s">
         <v>35</v>
       </c>
       <c r="G208">
@@ -16027,7 +16001,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A209" s="2" t="s">
+      <c r="A209" t="s">
         <v>27</v>
       </c>
       <c r="B209">
@@ -16042,7 +16016,7 @@
       <c r="E209">
         <v>3900</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="F209" t="s">
         <v>36</v>
       </c>
       <c r="G209">
@@ -16053,7 +16027,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>27</v>
       </c>
       <c r="B210">
@@ -16068,7 +16042,7 @@
       <c r="E210">
         <v>3175</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F210" t="s">
         <v>35</v>
       </c>
       <c r="G210">
@@ -16079,7 +16053,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>27</v>
       </c>
       <c r="B211">
@@ -16094,7 +16068,7 @@
       <c r="E211">
         <v>3975</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="F211" t="s">
         <v>36</v>
       </c>
       <c r="G211">
@@ -16105,7 +16079,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>27</v>
       </c>
       <c r="B212">
@@ -16120,7 +16094,7 @@
       <c r="E212">
         <v>3400</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F212" t="s">
         <v>35</v>
       </c>
       <c r="G212">
@@ -16131,7 +16105,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A213" s="2" t="s">
+      <c r="A213" t="s">
         <v>27</v>
       </c>
       <c r="B213">
@@ -16146,7 +16120,7 @@
       <c r="E213">
         <v>4250</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="F213" t="s">
         <v>36</v>
       </c>
       <c r="G213">
@@ -16157,7 +16131,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A214" s="2" t="s">
+      <c r="A214" t="s">
         <v>27</v>
       </c>
       <c r="B214">
@@ -16172,7 +16146,7 @@
       <c r="E214">
         <v>3400</v>
       </c>
-      <c r="F214" s="2" t="s">
+      <c r="F214" t="s">
         <v>35</v>
       </c>
       <c r="G214">
@@ -16183,7 +16157,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A215" s="2" t="s">
+      <c r="A215" t="s">
         <v>27</v>
       </c>
       <c r="B215">
@@ -16198,7 +16172,7 @@
       <c r="E215">
         <v>3475</v>
       </c>
-      <c r="F215" s="2" t="s">
+      <c r="F215" t="s">
         <v>36</v>
       </c>
       <c r="G215">
@@ -16209,7 +16183,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A216" s="2" t="s">
+      <c r="A216" t="s">
         <v>27</v>
       </c>
       <c r="B216">
@@ -16224,7 +16198,7 @@
       <c r="E216">
         <v>3050</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" t="s">
         <v>35</v>
       </c>
       <c r="G216">
@@ -16235,7 +16209,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A217" s="2" t="s">
+      <c r="A217" t="s">
         <v>27</v>
       </c>
       <c r="B217">
@@ -16250,7 +16224,7 @@
       <c r="E217">
         <v>3725</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F217" t="s">
         <v>36</v>
       </c>
       <c r="G217">
@@ -16261,7 +16235,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>27</v>
       </c>
       <c r="B218">
@@ -16276,7 +16250,7 @@
       <c r="E218">
         <v>3000</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F218" t="s">
         <v>35</v>
       </c>
       <c r="G218">
@@ -16287,7 +16261,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>27</v>
       </c>
       <c r="B219">
@@ -16302,7 +16276,7 @@
       <c r="E219">
         <v>3650</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="F219" t="s">
         <v>36</v>
       </c>
       <c r="G219">
@@ -16313,7 +16287,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A220" s="2" t="s">
+      <c r="A220" t="s">
         <v>27</v>
       </c>
       <c r="B220">
@@ -16328,7 +16302,7 @@
       <c r="E220">
         <v>4250</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="F220" t="s">
         <v>36</v>
       </c>
       <c r="G220">
@@ -16339,7 +16313,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
         <v>27</v>
       </c>
       <c r="B221">
@@ -16354,7 +16328,7 @@
       <c r="E221">
         <v>3475</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F221" t="s">
         <v>35</v>
       </c>
       <c r="G221">
@@ -16365,7 +16339,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A222" s="2" t="s">
+      <c r="A222" t="s">
         <v>27</v>
       </c>
       <c r="B222">
@@ -16380,7 +16354,7 @@
       <c r="E222">
         <v>3450</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="F222" t="s">
         <v>35</v>
       </c>
       <c r="G222">
@@ -16391,7 +16365,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A223" s="2" t="s">
+      <c r="A223" t="s">
         <v>27</v>
       </c>
       <c r="B223">
@@ -16406,7 +16380,7 @@
       <c r="E223">
         <v>3750</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F223" t="s">
         <v>36</v>
       </c>
       <c r="G223">
@@ -16417,7 +16391,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A224" s="2" t="s">
+      <c r="A224" t="s">
         <v>27</v>
       </c>
       <c r="B224">
@@ -16432,7 +16406,7 @@
       <c r="E224">
         <v>3700</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F224" t="s">
         <v>35</v>
       </c>
       <c r="G224">
@@ -16443,7 +16417,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A225" s="2" t="s">
+      <c r="A225" t="s">
         <v>27</v>
       </c>
       <c r="B225">
@@ -16458,7 +16432,7 @@
       <c r="E225">
         <v>4000</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="F225" t="s">
         <v>36</v>
       </c>
       <c r="G225">
@@ -16469,7 +16443,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A226" s="2" t="s">
+      <c r="A226" t="s">
         <v>32</v>
       </c>
       <c r="B226">
@@ -16484,7 +16458,7 @@
       <c r="E226">
         <v>3500</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="F226" t="s">
         <v>35</v>
       </c>
       <c r="G226">
@@ -16495,7 +16469,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A227" s="2" t="s">
+      <c r="A227" t="s">
         <v>32</v>
       </c>
       <c r="B227">
@@ -16510,7 +16484,7 @@
       <c r="E227">
         <v>3900</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="F227" t="s">
         <v>36</v>
       </c>
       <c r="G227">
@@ -16521,7 +16495,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A228" s="2" t="s">
+      <c r="A228" t="s">
         <v>32</v>
       </c>
       <c r="B228">
@@ -16536,7 +16510,7 @@
       <c r="E228">
         <v>3650</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="F228" t="s">
         <v>36</v>
       </c>
       <c r="G228">
@@ -16547,7 +16521,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A229" s="2" t="s">
+      <c r="A229" t="s">
         <v>32</v>
       </c>
       <c r="B229">
@@ -16562,7 +16536,7 @@
       <c r="E229">
         <v>3525</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="F229" t="s">
         <v>35</v>
       </c>
       <c r="G229">
@@ -16573,7 +16547,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A230" s="2" t="s">
+      <c r="A230" t="s">
         <v>32</v>
       </c>
       <c r="B230">
@@ -16588,7 +16562,7 @@
       <c r="E230">
         <v>3725</v>
       </c>
-      <c r="F230" s="2" t="s">
+      <c r="F230" t="s">
         <v>36</v>
       </c>
       <c r="G230">
@@ -16599,7 +16573,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A231" s="2" t="s">
+      <c r="A231" t="s">
         <v>32</v>
       </c>
       <c r="B231">
@@ -16614,7 +16588,7 @@
       <c r="E231">
         <v>3950</v>
       </c>
-      <c r="F231" s="2" t="s">
+      <c r="F231" t="s">
         <v>35</v>
       </c>
       <c r="G231">
@@ -16625,7 +16599,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A232" s="2" t="s">
+      <c r="A232" t="s">
         <v>32</v>
       </c>
       <c r="B232">
@@ -16640,7 +16614,7 @@
       <c r="E232">
         <v>3250</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="F232" t="s">
         <v>35</v>
       </c>
       <c r="G232">
@@ -16651,7 +16625,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A233" s="2" t="s">
+      <c r="A233" t="s">
         <v>32</v>
       </c>
       <c r="B233">
@@ -16666,7 +16640,7 @@
       <c r="E233">
         <v>3750</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="F233" t="s">
         <v>36</v>
       </c>
       <c r="G233">
@@ -16677,7 +16651,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A234" s="2" t="s">
+      <c r="A234" t="s">
         <v>32</v>
       </c>
       <c r="B234">
@@ -16692,7 +16666,7 @@
       <c r="E234">
         <v>4150</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="F234" t="s">
         <v>35</v>
       </c>
       <c r="G234">
@@ -16703,7 +16677,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A235" s="2" t="s">
+      <c r="A235" t="s">
         <v>32</v>
       </c>
       <c r="B235">
@@ -16718,7 +16692,7 @@
       <c r="E235">
         <v>3700</v>
       </c>
-      <c r="F235" s="2" t="s">
+      <c r="F235" t="s">
         <v>36</v>
       </c>
       <c r="G235">
@@ -16729,7 +16703,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A236" s="2" t="s">
+      <c r="A236" t="s">
         <v>32</v>
       </c>
       <c r="B236">
@@ -16744,7 +16718,7 @@
       <c r="E236">
         <v>3800</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="F236" t="s">
         <v>35</v>
       </c>
       <c r="G236">
@@ -16755,7 +16729,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A237" s="2" t="s">
+      <c r="A237" t="s">
         <v>32</v>
       </c>
       <c r="B237">
@@ -16770,7 +16744,7 @@
       <c r="E237">
         <v>3775</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="F237" t="s">
         <v>36</v>
       </c>
       <c r="G237">
@@ -16781,7 +16755,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A238" s="2" t="s">
+      <c r="A238" t="s">
         <v>32</v>
       </c>
       <c r="B238">
@@ -16796,7 +16770,7 @@
       <c r="E238">
         <v>3700</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="F238" t="s">
         <v>35</v>
       </c>
       <c r="G238">
@@ -16807,7 +16781,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A239" s="2" t="s">
+      <c r="A239" t="s">
         <v>32</v>
       </c>
       <c r="B239">
@@ -16822,7 +16796,7 @@
       <c r="E239">
         <v>4050</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="F239" t="s">
         <v>36</v>
       </c>
       <c r="G239">
@@ -16833,7 +16807,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A240" s="2" t="s">
+      <c r="A240" t="s">
         <v>32</v>
       </c>
       <c r="B240">
@@ -16848,7 +16822,7 @@
       <c r="E240">
         <v>3575</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F240" t="s">
         <v>35</v>
       </c>
       <c r="G240">
@@ -16859,7 +16833,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A241" s="2" t="s">
+      <c r="A241" t="s">
         <v>32</v>
       </c>
       <c r="B241">
@@ -16874,7 +16848,7 @@
       <c r="E241">
         <v>4050</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" t="s">
         <v>36</v>
       </c>
       <c r="G241">
@@ -16885,7 +16859,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A242" s="2" t="s">
+      <c r="A242" t="s">
         <v>32</v>
       </c>
       <c r="B242">
@@ -16900,7 +16874,7 @@
       <c r="E242">
         <v>3300</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F242" t="s">
         <v>36</v>
       </c>
       <c r="G242">
@@ -16911,7 +16885,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A243" s="2" t="s">
+      <c r="A243" t="s">
         <v>32</v>
       </c>
       <c r="B243">
@@ -16926,7 +16900,7 @@
       <c r="E243">
         <v>3700</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="F243" t="s">
         <v>35</v>
       </c>
       <c r="G243">
@@ -16937,7 +16911,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A244" s="2" t="s">
+      <c r="A244" t="s">
         <v>32</v>
       </c>
       <c r="B244">
@@ -16952,7 +16926,7 @@
       <c r="E244">
         <v>3450</v>
       </c>
-      <c r="F244" s="2" t="s">
+      <c r="F244" t="s">
         <v>35</v>
       </c>
       <c r="G244">
@@ -16963,7 +16937,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A245" s="2" t="s">
+      <c r="A245" t="s">
         <v>32</v>
       </c>
       <c r="B245">
@@ -16978,7 +16952,7 @@
       <c r="E245">
         <v>4400</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="F245" t="s">
         <v>36</v>
       </c>
       <c r="G245">
@@ -16989,7 +16963,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A246" s="2" t="s">
+      <c r="A246" t="s">
         <v>32</v>
       </c>
       <c r="B246">
@@ -17004,7 +16978,7 @@
       <c r="E246">
         <v>3600</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="F246" t="s">
         <v>35</v>
       </c>
       <c r="G246">
@@ -17015,7 +16989,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A247" s="2" t="s">
+      <c r="A247" t="s">
         <v>32</v>
       </c>
       <c r="B247">
@@ -17030,7 +17004,7 @@
       <c r="E247">
         <v>3400</v>
       </c>
-      <c r="F247" s="2" t="s">
+      <c r="F247" t="s">
         <v>36</v>
       </c>
       <c r="G247">
@@ -17041,7 +17015,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A248" s="2" t="s">
+      <c r="A248" t="s">
         <v>32</v>
       </c>
       <c r="B248">
@@ -17056,7 +17030,7 @@
       <c r="E248">
         <v>2900</v>
       </c>
-      <c r="F248" s="2" t="s">
+      <c r="F248" t="s">
         <v>35</v>
       </c>
       <c r="G248">
@@ -17067,7 +17041,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A249" s="2" t="s">
+      <c r="A249" t="s">
         <v>32</v>
       </c>
       <c r="B249">
@@ -17082,7 +17056,7 @@
       <c r="E249">
         <v>3800</v>
       </c>
-      <c r="F249" s="2" t="s">
+      <c r="F249" t="s">
         <v>36</v>
       </c>
       <c r="G249">
@@ -17093,7 +17067,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A250" s="2" t="s">
+      <c r="A250" t="s">
         <v>32</v>
       </c>
       <c r="B250">
@@ -17108,7 +17082,7 @@
       <c r="E250">
         <v>3300</v>
       </c>
-      <c r="F250" s="2" t="s">
+      <c r="F250" t="s">
         <v>35</v>
       </c>
       <c r="G250">
@@ -17119,7 +17093,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A251" s="2" t="s">
+      <c r="A251" t="s">
         <v>32</v>
       </c>
       <c r="B251">
@@ -17134,7 +17108,7 @@
       <c r="E251">
         <v>4150</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="F251" t="s">
         <v>36</v>
       </c>
       <c r="G251">
@@ -17145,7 +17119,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A252" s="2" t="s">
+      <c r="A252" t="s">
         <v>32</v>
       </c>
       <c r="B252">
@@ -17160,7 +17134,7 @@
       <c r="E252">
         <v>3400</v>
       </c>
-      <c r="F252" s="2" t="s">
+      <c r="F252" t="s">
         <v>35</v>
       </c>
       <c r="G252">
@@ -17171,7 +17145,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A253" s="2" t="s">
+      <c r="A253" t="s">
         <v>32</v>
       </c>
       <c r="B253">
@@ -17186,7 +17160,7 @@
       <c r="E253">
         <v>3800</v>
       </c>
-      <c r="F253" s="2" t="s">
+      <c r="F253" t="s">
         <v>36</v>
       </c>
       <c r="G253">
@@ -17197,7 +17171,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A254" s="2" t="s">
+      <c r="A254" t="s">
         <v>32</v>
       </c>
       <c r="B254">
@@ -17212,7 +17186,7 @@
       <c r="E254">
         <v>3700</v>
       </c>
-      <c r="F254" s="2" t="s">
+      <c r="F254" t="s">
         <v>35</v>
       </c>
       <c r="G254">
@@ -17223,7 +17197,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A255" s="2" t="s">
+      <c r="A255" t="s">
         <v>32</v>
       </c>
       <c r="B255">
@@ -17238,7 +17212,7 @@
       <c r="E255">
         <v>4550</v>
       </c>
-      <c r="F255" s="2" t="s">
+      <c r="F255" t="s">
         <v>36</v>
       </c>
       <c r="G255">
@@ -17249,7 +17223,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A256" s="2" t="s">
+      <c r="A256" t="s">
         <v>32</v>
       </c>
       <c r="B256">
@@ -17264,7 +17238,7 @@
       <c r="E256">
         <v>3200</v>
       </c>
-      <c r="F256" s="2" t="s">
+      <c r="F256" t="s">
         <v>35</v>
       </c>
       <c r="G256">
@@ -17275,7 +17249,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A257" s="2" t="s">
+      <c r="A257" t="s">
         <v>32</v>
       </c>
       <c r="B257">
@@ -17290,7 +17264,7 @@
       <c r="E257">
         <v>4300</v>
       </c>
-      <c r="F257" s="2" t="s">
+      <c r="F257" t="s">
         <v>36</v>
       </c>
       <c r="G257">
@@ -17301,7 +17275,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A258" s="2" t="s">
+      <c r="A258" t="s">
         <v>32</v>
       </c>
       <c r="B258">
@@ -17316,7 +17290,7 @@
       <c r="E258">
         <v>3350</v>
       </c>
-      <c r="F258" s="2" t="s">
+      <c r="F258" t="s">
         <v>35</v>
       </c>
       <c r="G258">
@@ -17327,7 +17301,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A259" s="2" t="s">
+      <c r="A259" t="s">
         <v>32</v>
       </c>
       <c r="B259">
@@ -17342,7 +17316,7 @@
       <c r="E259">
         <v>4100</v>
       </c>
-      <c r="F259" s="2" t="s">
+      <c r="F259" t="s">
         <v>36</v>
       </c>
       <c r="G259">
@@ -17353,7 +17327,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A260" s="2" t="s">
+      <c r="A260" t="s">
         <v>32</v>
       </c>
       <c r="B260">
@@ -17368,7 +17342,7 @@
       <c r="E260">
         <v>3600</v>
       </c>
-      <c r="F260" s="2" t="s">
+      <c r="F260" t="s">
         <v>36</v>
       </c>
       <c r="G260">
@@ -17379,7 +17353,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A261" s="2" t="s">
+      <c r="A261" t="s">
         <v>32</v>
       </c>
       <c r="B261">
@@ -17394,7 +17368,7 @@
       <c r="E261">
         <v>3900</v>
       </c>
-      <c r="F261" s="2" t="s">
+      <c r="F261" t="s">
         <v>35</v>
       </c>
       <c r="G261">
@@ -17405,7 +17379,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A262" s="2" t="s">
+      <c r="A262" t="s">
         <v>32</v>
       </c>
       <c r="B262">
@@ -17420,7 +17394,7 @@
       <c r="E262">
         <v>3850</v>
       </c>
-      <c r="F262" s="2" t="s">
+      <c r="F262" t="s">
         <v>35</v>
       </c>
       <c r="G262">
@@ -17431,7 +17405,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A263" s="2" t="s">
+      <c r="A263" t="s">
         <v>32</v>
       </c>
       <c r="B263">
@@ -17446,7 +17420,7 @@
       <c r="E263">
         <v>4800</v>
       </c>
-      <c r="F263" s="2" t="s">
+      <c r="F263" t="s">
         <v>36</v>
       </c>
       <c r="G263">
@@ -17457,7 +17431,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A264" s="2" t="s">
+      <c r="A264" t="s">
         <v>32</v>
       </c>
       <c r="B264">
@@ -17472,7 +17446,7 @@
       <c r="E264">
         <v>2700</v>
       </c>
-      <c r="F264" s="2" t="s">
+      <c r="F264" t="s">
         <v>35</v>
       </c>
       <c r="G264">
@@ -17483,7 +17457,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A265" s="2" t="s">
+      <c r="A265" t="s">
         <v>32</v>
       </c>
       <c r="B265">
@@ -17498,7 +17472,7 @@
       <c r="E265">
         <v>4500</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="F265" t="s">
         <v>36</v>
       </c>
       <c r="G265">
@@ -17509,7 +17483,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A266" s="2" t="s">
+      <c r="A266" t="s">
         <v>32</v>
       </c>
       <c r="B266">
@@ -17524,7 +17498,7 @@
       <c r="E266">
         <v>3950</v>
       </c>
-      <c r="F266" s="2" t="s">
+      <c r="F266" t="s">
         <v>36</v>
       </c>
       <c r="G266">
@@ -17535,7 +17509,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A267" s="2" t="s">
+      <c r="A267" t="s">
         <v>32</v>
       </c>
       <c r="B267">
@@ -17550,7 +17524,7 @@
       <c r="E267">
         <v>3650</v>
       </c>
-      <c r="F267" s="2" t="s">
+      <c r="F267" t="s">
         <v>35</v>
       </c>
       <c r="G267">
@@ -17561,7 +17535,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A268" s="2" t="s">
+      <c r="A268" t="s">
         <v>32</v>
       </c>
       <c r="B268">
@@ -17576,7 +17550,7 @@
       <c r="E268">
         <v>3550</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="F268" t="s">
         <v>36</v>
       </c>
       <c r="G268">
@@ -17587,7 +17561,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A269" s="2" t="s">
+      <c r="A269" t="s">
         <v>32</v>
       </c>
       <c r="B269">
@@ -17602,7 +17576,7 @@
       <c r="E269">
         <v>3500</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="F269" t="s">
         <v>35</v>
       </c>
       <c r="G269">
@@ -17613,7 +17587,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A270" s="2" t="s">
+      <c r="A270" t="s">
         <v>32</v>
       </c>
       <c r="B270">
@@ -17628,7 +17602,7 @@
       <c r="E270">
         <v>3675</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="F270" t="s">
         <v>35</v>
       </c>
       <c r="G270">
@@ -17639,7 +17613,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A271" s="2" t="s">
+      <c r="A271" t="s">
         <v>32</v>
       </c>
       <c r="B271">
@@ -17654,7 +17628,7 @@
       <c r="E271">
         <v>4450</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="F271" t="s">
         <v>36</v>
       </c>
       <c r="G271">
@@ -17665,7 +17639,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A272" s="2" t="s">
+      <c r="A272" t="s">
         <v>32</v>
       </c>
       <c r="B272">
@@ -17680,7 +17654,7 @@
       <c r="E272">
         <v>3400</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="F272" t="s">
         <v>35</v>
       </c>
       <c r="G272">
@@ -17691,7 +17665,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A273" s="2" t="s">
+      <c r="A273" t="s">
         <v>32</v>
       </c>
       <c r="B273">
@@ -17706,7 +17680,7 @@
       <c r="E273">
         <v>4300</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="F273" t="s">
         <v>36</v>
       </c>
       <c r="G273">
@@ -17717,7 +17691,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A274" s="2" t="s">
+      <c r="A274" t="s">
         <v>32</v>
       </c>
       <c r="B274">
@@ -17732,7 +17706,7 @@
       <c r="E274">
         <v>3250</v>
       </c>
-      <c r="F274" s="2" t="s">
+      <c r="F274" t="s">
         <v>36</v>
       </c>
       <c r="G274">
@@ -17743,7 +17717,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A275" s="2" t="s">
+      <c r="A275" t="s">
         <v>32</v>
       </c>
       <c r="B275">
@@ -17758,7 +17732,7 @@
       <c r="E275">
         <v>3675</v>
       </c>
-      <c r="F275" s="2" t="s">
+      <c r="F275" t="s">
         <v>35</v>
       </c>
       <c r="G275">
@@ -17769,7 +17743,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A276" s="2" t="s">
+      <c r="A276" t="s">
         <v>32</v>
       </c>
       <c r="B276">
@@ -17784,7 +17758,7 @@
       <c r="E276">
         <v>3325</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="F276" t="s">
         <v>35</v>
       </c>
       <c r="G276">
@@ -17795,7 +17769,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A277" s="2" t="s">
+      <c r="A277" t="s">
         <v>32</v>
       </c>
       <c r="B277">
@@ -17810,7 +17784,7 @@
       <c r="E277">
         <v>3950</v>
       </c>
-      <c r="F277" s="2" t="s">
+      <c r="F277" t="s">
         <v>36</v>
       </c>
       <c r="G277">
@@ -17821,7 +17795,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A278" s="2" t="s">
+      <c r="A278" t="s">
         <v>32</v>
       </c>
       <c r="B278">
@@ -17836,7 +17810,7 @@
       <c r="E278">
         <v>3600</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="F278" t="s">
         <v>35</v>
       </c>
       <c r="G278">
@@ -17847,7 +17821,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A279" s="2" t="s">
+      <c r="A279" t="s">
         <v>32</v>
       </c>
       <c r="B279">
@@ -17862,7 +17836,7 @@
       <c r="E279">
         <v>4050</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="F279" t="s">
         <v>36</v>
       </c>
       <c r="G279">
@@ -17873,7 +17847,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A280" s="2" t="s">
+      <c r="A280" t="s">
         <v>32</v>
       </c>
       <c r="B280">
@@ -17888,7 +17862,7 @@
       <c r="E280">
         <v>3350</v>
       </c>
-      <c r="F280" s="2" t="s">
+      <c r="F280" t="s">
         <v>35</v>
       </c>
       <c r="G280">
@@ -17899,7 +17873,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A281" s="2" t="s">
+      <c r="A281" t="s">
         <v>32</v>
       </c>
       <c r="B281">
@@ -17914,7 +17888,7 @@
       <c r="E281">
         <v>3450</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="F281" t="s">
         <v>36</v>
       </c>
       <c r="G281">
@@ -17925,7 +17899,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A282" s="2" t="s">
+      <c r="A282" t="s">
         <v>32</v>
       </c>
       <c r="B282">
@@ -17940,7 +17914,7 @@
       <c r="E282">
         <v>3250</v>
       </c>
-      <c r="F282" s="2" t="s">
+      <c r="F282" t="s">
         <v>35</v>
       </c>
       <c r="G282">
@@ -17951,7 +17925,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A283" s="2" t="s">
+      <c r="A283" t="s">
         <v>32</v>
       </c>
       <c r="B283">
@@ -17966,7 +17940,7 @@
       <c r="E283">
         <v>4050</v>
       </c>
-      <c r="F283" s="2" t="s">
+      <c r="F283" t="s">
         <v>36</v>
       </c>
       <c r="G283">
@@ -17977,7 +17951,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>32</v>
       </c>
       <c r="B284">
@@ -17992,7 +17966,7 @@
       <c r="E284">
         <v>3800</v>
       </c>
-      <c r="F284" s="2" t="s">
+      <c r="F284" t="s">
         <v>36</v>
       </c>
       <c r="G284">
@@ -18003,7 +17977,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A285" s="2" t="s">
+      <c r="A285" t="s">
         <v>32</v>
       </c>
       <c r="B285">
@@ -18018,7 +17992,7 @@
       <c r="E285">
         <v>3525</v>
       </c>
-      <c r="F285" s="2" t="s">
+      <c r="F285" t="s">
         <v>35</v>
       </c>
       <c r="G285">
@@ -18029,7 +18003,7 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A286" s="2" t="s">
+      <c r="A286" t="s">
         <v>32</v>
       </c>
       <c r="B286">
@@ -18044,7 +18018,7 @@
       <c r="E286">
         <v>3950</v>
       </c>
-      <c r="F286" s="2" t="s">
+      <c r="F286" t="s">
         <v>36</v>
       </c>
       <c r="G286">
@@ -18055,7 +18029,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A287" s="2" t="s">
+      <c r="A287" t="s">
         <v>32</v>
       </c>
       <c r="B287">
@@ -18070,7 +18044,7 @@
       <c r="E287">
         <v>3650</v>
       </c>
-      <c r="F287" s="2" t="s">
+      <c r="F287" t="s">
         <v>35</v>
       </c>
       <c r="G287">
@@ -18081,7 +18055,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A288" s="2" t="s">
+      <c r="A288" t="s">
         <v>32</v>
       </c>
       <c r="B288">
@@ -18096,7 +18070,7 @@
       <c r="E288">
         <v>3650</v>
       </c>
-      <c r="F288" s="2" t="s">
+      <c r="F288" t="s">
         <v>35</v>
       </c>
       <c r="G288">
@@ -18107,7 +18081,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A289" s="2" t="s">
+      <c r="A289" t="s">
         <v>32</v>
       </c>
       <c r="B289">
@@ -18122,7 +18096,7 @@
       <c r="E289">
         <v>4000</v>
       </c>
-      <c r="F289" s="2" t="s">
+      <c r="F289" t="s">
         <v>36</v>
       </c>
       <c r="G289">
@@ -18133,7 +18107,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A290" s="2" t="s">
+      <c r="A290" t="s">
         <v>32</v>
       </c>
       <c r="B290">
@@ -18148,7 +18122,7 @@
       <c r="E290">
         <v>3400</v>
       </c>
-      <c r="F290" s="2" t="s">
+      <c r="F290" t="s">
         <v>35</v>
       </c>
       <c r="G290">
@@ -18159,7 +18133,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A291" s="2" t="s">
+      <c r="A291" t="s">
         <v>32</v>
       </c>
       <c r="B291">
@@ -18174,7 +18148,7 @@
       <c r="E291">
         <v>3775</v>
       </c>
-      <c r="F291" s="2" t="s">
+      <c r="F291" t="s">
         <v>36</v>
       </c>
       <c r="G291">
@@ -18185,7 +18159,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A292" s="2" t="s">
+      <c r="A292" t="s">
         <v>32</v>
       </c>
       <c r="B292">
@@ -18200,7 +18174,7 @@
       <c r="E292">
         <v>4100</v>
       </c>
-      <c r="F292" s="2" t="s">
+      <c r="F292" t="s">
         <v>36</v>
       </c>
       <c r="G292">
@@ -18211,7 +18185,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A293" s="2" t="s">
+      <c r="A293" t="s">
         <v>32</v>
       </c>
       <c r="B293">
@@ -18226,7 +18200,7 @@
       <c r="E293">
         <v>3775</v>
       </c>
-      <c r="F293" s="2" t="s">
+      <c r="F293" t="s">
         <v>35</v>
       </c>
       <c r="G293">
@@ -18237,7 +18211,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A294" s="2" t="s">
+      <c r="A294" t="s">
         <v>27</v>
       </c>
       <c r="B294">
@@ -18252,7 +18226,7 @@
       <c r="E294">
         <v>3750</v>
       </c>
-      <c r="F294" s="2" t="s">
+      <c r="F294" t="s">
         <v>36</v>
       </c>
       <c r="G294">
@@ -18263,7 +18237,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A295" s="2" t="s">
+      <c r="A295" t="s">
         <v>27</v>
       </c>
       <c r="B295">
@@ -18278,7 +18252,7 @@
       <c r="E295">
         <v>3800</v>
       </c>
-      <c r="F295" s="2" t="s">
+      <c r="F295" t="s">
         <v>35</v>
       </c>
       <c r="G295">
@@ -18289,7 +18263,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A296" s="2" t="s">
+      <c r="A296" t="s">
         <v>27</v>
       </c>
       <c r="B296">
@@ -18304,7 +18278,7 @@
       <c r="E296">
         <v>3250</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="F296" t="s">
         <v>35</v>
       </c>
       <c r="G296">
@@ -18315,10 +18289,10 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A297" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F297" s="2" t="s">
+      <c r="A297" t="s">
+        <v>27</v>
+      </c>
+      <c r="F297" t="s">
         <v>37</v>
       </c>
       <c r="H297">
@@ -18326,7 +18300,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A298" s="2" t="s">
+      <c r="A298" t="s">
         <v>27</v>
       </c>
       <c r="B298">
@@ -18341,7 +18315,7 @@
       <c r="E298">
         <v>3450</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="F298" t="s">
         <v>35</v>
       </c>
       <c r="G298">
@@ -18352,7 +18326,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A299" s="2" t="s">
+      <c r="A299" t="s">
         <v>27</v>
       </c>
       <c r="B299">
@@ -18367,7 +18341,7 @@
       <c r="E299">
         <v>3650</v>
       </c>
-      <c r="F299" s="2" t="s">
+      <c r="F299" t="s">
         <v>36</v>
       </c>
       <c r="G299">
@@ -18378,7 +18352,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A300" s="2" t="s">
+      <c r="A300" t="s">
         <v>27</v>
       </c>
       <c r="B300">
@@ -18393,7 +18367,7 @@
       <c r="E300">
         <v>3625</v>
       </c>
-      <c r="F300" s="2" t="s">
+      <c r="F300" t="s">
         <v>35</v>
       </c>
       <c r="G300">
@@ -18404,7 +18378,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A301" s="2" t="s">
+      <c r="A301" t="s">
         <v>27</v>
       </c>
       <c r="B301">
@@ -18419,7 +18393,7 @@
       <c r="E301">
         <v>4675</v>
       </c>
-      <c r="F301" s="2" t="s">
+      <c r="F301" t="s">
         <v>36</v>
       </c>
       <c r="G301">
@@ -18430,7 +18404,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A302" s="2" t="s">
+      <c r="A302" t="s">
         <v>27</v>
       </c>
       <c r="B302">
@@ -18445,7 +18419,7 @@
       <c r="E302">
         <v>3475</v>
       </c>
-      <c r="F302" s="2" t="s">
+      <c r="F302" t="s">
         <v>37</v>
       </c>
       <c r="G302">
@@ -18456,7 +18430,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A303" s="2" t="s">
+      <c r="A303" t="s">
         <v>27</v>
       </c>
       <c r="B303">
@@ -18471,7 +18445,7 @@
       <c r="E303">
         <v>4250</v>
       </c>
-      <c r="F303" s="2" t="s">
+      <c r="F303" t="s">
         <v>37</v>
       </c>
       <c r="G303">
@@ -18482,7 +18456,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A304" s="2" t="s">
+      <c r="A304" t="s">
         <v>27</v>
       </c>
       <c r="B304">
@@ -18497,7 +18471,7 @@
       <c r="E304">
         <v>3300</v>
       </c>
-      <c r="F304" s="2" t="s">
+      <c r="F304" t="s">
         <v>37</v>
       </c>
       <c r="G304">
@@ -18508,7 +18482,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A305" s="2" t="s">
+      <c r="A305" t="s">
         <v>27</v>
       </c>
       <c r="B305">
@@ -18523,7 +18497,7 @@
       <c r="E305">
         <v>3700</v>
       </c>
-      <c r="F305" s="2" t="s">
+      <c r="F305" t="s">
         <v>37</v>
       </c>
       <c r="G305">
@@ -18534,7 +18508,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A306" s="2" t="s">
+      <c r="A306" t="s">
         <v>27</v>
       </c>
       <c r="B306">
@@ -18549,7 +18523,7 @@
       <c r="E306">
         <v>3200</v>
       </c>
-      <c r="F306" s="2" t="s">
+      <c r="F306" t="s">
         <v>35</v>
       </c>
       <c r="G306">
@@ -18560,7 +18534,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A307" s="2" t="s">
+      <c r="A307" t="s">
         <v>27</v>
       </c>
       <c r="B307">
@@ -18575,7 +18549,7 @@
       <c r="E307">
         <v>3800</v>
       </c>
-      <c r="F307" s="2" t="s">
+      <c r="F307" t="s">
         <v>36</v>
       </c>
       <c r="G307">
@@ -18586,7 +18560,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A308" s="2" t="s">
+      <c r="A308" t="s">
         <v>27</v>
       </c>
       <c r="B308">
@@ -18601,7 +18575,7 @@
       <c r="E308">
         <v>4400</v>
       </c>
-      <c r="F308" s="2" t="s">
+      <c r="F308" t="s">
         <v>36</v>
       </c>
       <c r="G308">
@@ -18612,7 +18586,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A309" s="2" t="s">
+      <c r="A309" t="s">
         <v>27</v>
       </c>
       <c r="B309">
@@ -18627,7 +18601,7 @@
       <c r="E309">
         <v>3700</v>
       </c>
-      <c r="F309" s="2" t="s">
+      <c r="F309" t="s">
         <v>35</v>
       </c>
       <c r="G309">
@@ -18638,7 +18612,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A310" s="2" t="s">
+      <c r="A310" t="s">
         <v>27</v>
       </c>
       <c r="B310">
@@ -18653,7 +18627,7 @@
       <c r="E310">
         <v>3450</v>
       </c>
-      <c r="F310" s="2" t="s">
+      <c r="F310" t="s">
         <v>35</v>
       </c>
       <c r="G310">
@@ -18664,7 +18638,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A311" s="2" t="s">
+      <c r="A311" t="s">
         <v>27</v>
       </c>
       <c r="B311">
@@ -18679,7 +18653,7 @@
       <c r="E311">
         <v>4500</v>
       </c>
-      <c r="F311" s="2" t="s">
+      <c r="F311" t="s">
         <v>36</v>
       </c>
       <c r="G311">
@@ -18690,7 +18664,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A312" s="2" t="s">
+      <c r="A312" t="s">
         <v>27</v>
       </c>
       <c r="B312">
@@ -18705,7 +18679,7 @@
       <c r="E312">
         <v>3325</v>
       </c>
-      <c r="F312" s="2" t="s">
+      <c r="F312" t="s">
         <v>35</v>
       </c>
       <c r="G312">
@@ -18716,7 +18690,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A313" s="2" t="s">
+      <c r="A313" t="s">
         <v>27</v>
       </c>
       <c r="B313">
@@ -18731,7 +18705,7 @@
       <c r="E313">
         <v>4200</v>
       </c>
-      <c r="F313" s="2" t="s">
+      <c r="F313" t="s">
         <v>36</v>
       </c>
       <c r="G313">
@@ -18742,7 +18716,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A314" s="2" t="s">
+      <c r="A314" t="s">
         <v>27</v>
       </c>
       <c r="B314">
@@ -18757,7 +18731,7 @@
       <c r="E314">
         <v>3050</v>
       </c>
-      <c r="F314" s="2" t="s">
+      <c r="F314" t="s">
         <v>35</v>
       </c>
       <c r="G314">
@@ -18768,7 +18742,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A315" s="2" t="s">
+      <c r="A315" t="s">
         <v>27</v>
       </c>
       <c r="B315">
@@ -18783,7 +18757,7 @@
       <c r="E315">
         <v>4450</v>
       </c>
-      <c r="F315" s="2" t="s">
+      <c r="F315" t="s">
         <v>36</v>
       </c>
       <c r="G315">
@@ -18794,7 +18768,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A316" s="2" t="s">
+      <c r="A316" t="s">
         <v>27</v>
       </c>
       <c r="B316">
@@ -18809,7 +18783,7 @@
       <c r="E316">
         <v>3600</v>
       </c>
-      <c r="F316" s="2" t="s">
+      <c r="F316" t="s">
         <v>35</v>
       </c>
       <c r="G316">
@@ -18820,7 +18794,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A317" s="2" t="s">
+      <c r="A317" t="s">
         <v>27</v>
       </c>
       <c r="B317">
@@ -18835,7 +18809,7 @@
       <c r="E317">
         <v>3900</v>
       </c>
-      <c r="F317" s="2" t="s">
+      <c r="F317" t="s">
         <v>36</v>
       </c>
       <c r="G317">
@@ -18846,7 +18820,7 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A318" s="2" t="s">
+      <c r="A318" t="s">
         <v>27</v>
       </c>
       <c r="B318">
@@ -18861,7 +18835,7 @@
       <c r="E318">
         <v>3550</v>
       </c>
-      <c r="F318" s="2" t="s">
+      <c r="F318" t="s">
         <v>35</v>
       </c>
       <c r="G318">
@@ -18872,7 +18846,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A319" s="2" t="s">
+      <c r="A319" t="s">
         <v>27</v>
       </c>
       <c r="B319">
@@ -18887,7 +18861,7 @@
       <c r="E319">
         <v>4150</v>
       </c>
-      <c r="F319" s="2" t="s">
+      <c r="F319" t="s">
         <v>36</v>
       </c>
       <c r="G319">
@@ -18898,7 +18872,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A320" s="2" t="s">
+      <c r="A320" t="s">
         <v>27</v>
       </c>
       <c r="B320">
@@ -18913,7 +18887,7 @@
       <c r="E320">
         <v>3700</v>
       </c>
-      <c r="F320" s="2" t="s">
+      <c r="F320" t="s">
         <v>35</v>
       </c>
       <c r="G320">
@@ -18924,7 +18898,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A321" s="2" t="s">
+      <c r="A321" t="s">
         <v>27</v>
       </c>
       <c r="B321">
@@ -18939,7 +18913,7 @@
       <c r="E321">
         <v>4250</v>
       </c>
-      <c r="F321" s="2" t="s">
+      <c r="F321" t="s">
         <v>36</v>
       </c>
       <c r="G321">
@@ -18950,7 +18924,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A322" s="2" t="s">
+      <c r="A322" t="s">
         <v>27</v>
       </c>
       <c r="B322">
@@ -18965,7 +18939,7 @@
       <c r="E322">
         <v>3700</v>
       </c>
-      <c r="F322" s="2" t="s">
+      <c r="F322" t="s">
         <v>35</v>
       </c>
       <c r="G322">
@@ -18976,7 +18950,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A323" s="2" t="s">
+      <c r="A323" t="s">
         <v>27</v>
       </c>
       <c r="B323">
@@ -18991,7 +18965,7 @@
       <c r="E323">
         <v>3900</v>
       </c>
-      <c r="F323" s="2" t="s">
+      <c r="F323" t="s">
         <v>36</v>
       </c>
       <c r="G323">
@@ -19002,7 +18976,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A324" s="2" t="s">
+      <c r="A324" t="s">
         <v>27</v>
       </c>
       <c r="B324">
@@ -19017,7 +18991,7 @@
       <c r="E324">
         <v>3550</v>
       </c>
-      <c r="F324" s="2" t="s">
+      <c r="F324" t="s">
         <v>35</v>
       </c>
       <c r="G324">
@@ -19028,7 +19002,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A325" s="2" t="s">
+      <c r="A325" t="s">
         <v>27</v>
       </c>
       <c r="B325">
@@ -19043,7 +19017,7 @@
       <c r="E325">
         <v>4000</v>
       </c>
-      <c r="F325" s="2" t="s">
+      <c r="F325" t="s">
         <v>36</v>
       </c>
       <c r="G325">
@@ -19054,7 +19028,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A326" s="2" t="s">
+      <c r="A326" t="s">
         <v>27</v>
       </c>
       <c r="B326">
@@ -19069,7 +19043,7 @@
       <c r="E326">
         <v>3200</v>
       </c>
-      <c r="F326" s="2" t="s">
+      <c r="F326" t="s">
         <v>35</v>
       </c>
       <c r="G326">
@@ -19080,7 +19054,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A327" s="2" t="s">
+      <c r="A327" t="s">
         <v>27</v>
       </c>
       <c r="B327">
@@ -19095,7 +19069,7 @@
       <c r="E327">
         <v>4700</v>
       </c>
-      <c r="F327" s="2" t="s">
+      <c r="F327" t="s">
         <v>36</v>
       </c>
       <c r="G327">
@@ -19106,7 +19080,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A328" s="2" t="s">
+      <c r="A328" t="s">
         <v>27</v>
       </c>
       <c r="B328">
@@ -19121,7 +19095,7 @@
       <c r="E328">
         <v>3800</v>
       </c>
-      <c r="F328" s="2" t="s">
+      <c r="F328" t="s">
         <v>35</v>
       </c>
       <c r="G328">
@@ -19132,7 +19106,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A329" s="2" t="s">
+      <c r="A329" t="s">
         <v>27</v>
       </c>
       <c r="B329">
@@ -19147,7 +19121,7 @@
       <c r="E329">
         <v>4200</v>
       </c>
-      <c r="F329" s="2" t="s">
+      <c r="F329" t="s">
         <v>36</v>
       </c>
       <c r="G329">
@@ -19158,7 +19132,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A330" s="2" t="s">
+      <c r="A330" t="s">
         <v>27</v>
       </c>
       <c r="B330">
@@ -19173,7 +19147,7 @@
       <c r="E330">
         <v>2900</v>
       </c>
-      <c r="F330" s="2" t="s">
+      <c r="F330" t="s">
         <v>35</v>
       </c>
       <c r="G330">
@@ -19184,7 +19158,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A331" s="2" t="s">
+      <c r="A331" t="s">
         <v>27</v>
       </c>
       <c r="B331">
@@ -19199,7 +19173,7 @@
       <c r="E331">
         <v>3775</v>
       </c>
-      <c r="F331" s="2" t="s">
+      <c r="F331" t="s">
         <v>36</v>
       </c>
       <c r="G331">
@@ -19210,7 +19184,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A332" s="2" t="s">
+      <c r="A332" t="s">
         <v>27</v>
       </c>
       <c r="B332">
@@ -19225,7 +19199,7 @@
       <c r="E332">
         <v>3350</v>
       </c>
-      <c r="F332" s="2" t="s">
+      <c r="F332" t="s">
         <v>35</v>
       </c>
       <c r="G332">
@@ -19236,7 +19210,7 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A333" s="2" t="s">
+      <c r="A333" t="s">
         <v>27</v>
       </c>
       <c r="B333">
@@ -19251,7 +19225,7 @@
       <c r="E333">
         <v>3325</v>
       </c>
-      <c r="F333" s="2" t="s">
+      <c r="F333" t="s">
         <v>36</v>
       </c>
       <c r="G333">
@@ -19262,7 +19236,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A334" s="2" t="s">
+      <c r="A334" t="s">
         <v>27</v>
       </c>
       <c r="B334">
@@ -19277,7 +19251,7 @@
       <c r="E334">
         <v>3150</v>
       </c>
-      <c r="F334" s="2" t="s">
+      <c r="F334" t="s">
         <v>35</v>
       </c>
       <c r="G334">
@@ -19288,7 +19262,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A335" s="2" t="s">
+      <c r="A335" t="s">
         <v>27</v>
       </c>
       <c r="B335">
@@ -19303,7 +19277,7 @@
       <c r="E335">
         <v>3500</v>
       </c>
-      <c r="F335" s="2" t="s">
+      <c r="F335" t="s">
         <v>36</v>
       </c>
       <c r="G335">
@@ -19314,7 +19288,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A336" s="2" t="s">
+      <c r="A336" t="s">
         <v>27</v>
       </c>
       <c r="B336">
@@ -19329,7 +19303,7 @@
       <c r="E336">
         <v>3450</v>
       </c>
-      <c r="F336" s="2" t="s">
+      <c r="F336" t="s">
         <v>35</v>
       </c>
       <c r="G336">
@@ -19340,7 +19314,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A337" s="2" t="s">
+      <c r="A337" t="s">
         <v>27</v>
       </c>
       <c r="B337">
@@ -19355,7 +19329,7 @@
       <c r="E337">
         <v>3875</v>
       </c>
-      <c r="F337" s="2" t="s">
+      <c r="F337" t="s">
         <v>36</v>
       </c>
       <c r="G337">
@@ -19366,7 +19340,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A338" s="2" t="s">
+      <c r="A338" t="s">
         <v>27</v>
       </c>
       <c r="B338">
@@ -19381,7 +19355,7 @@
       <c r="E338">
         <v>3050</v>
       </c>
-      <c r="F338" s="2" t="s">
+      <c r="F338" t="s">
         <v>35</v>
       </c>
       <c r="G338">
@@ -19392,7 +19366,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A339" s="2" t="s">
+      <c r="A339" t="s">
         <v>27</v>
       </c>
       <c r="B339">
@@ -19407,7 +19381,7 @@
       <c r="E339">
         <v>4000</v>
       </c>
-      <c r="F339" s="2" t="s">
+      <c r="F339" t="s">
         <v>36</v>
       </c>
       <c r="G339">
@@ -19418,7 +19392,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A340" s="2" t="s">
+      <c r="A340" t="s">
         <v>27</v>
       </c>
       <c r="B340">
@@ -19433,7 +19407,7 @@
       <c r="E340">
         <v>3275</v>
       </c>
-      <c r="F340" s="2" t="s">
+      <c r="F340" t="s">
         <v>35</v>
       </c>
       <c r="G340">
@@ -19444,7 +19418,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A341" s="2" t="s">
+      <c r="A341" t="s">
         <v>27</v>
       </c>
       <c r="B341">
@@ -19459,7 +19433,7 @@
       <c r="E341">
         <v>4300</v>
       </c>
-      <c r="F341" s="2" t="s">
+      <c r="F341" t="s">
         <v>36</v>
       </c>
       <c r="G341">
@@ -19470,7 +19444,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A342" s="2" t="s">
+      <c r="A342" t="s">
         <v>27</v>
       </c>
       <c r="B342">
@@ -19485,7 +19459,7 @@
       <c r="E342">
         <v>3050</v>
       </c>
-      <c r="F342" s="2" t="s">
+      <c r="F342" t="s">
         <v>35</v>
       </c>
       <c r="G342">
@@ -19496,7 +19470,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A343" s="2" t="s">
+      <c r="A343" t="s">
         <v>27</v>
       </c>
       <c r="B343">
@@ -19511,7 +19485,7 @@
       <c r="E343">
         <v>4000</v>
       </c>
-      <c r="F343" s="2" t="s">
+      <c r="F343" t="s">
         <v>36</v>
       </c>
       <c r="G343">
@@ -19522,7 +19496,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A344" s="2" t="s">
+      <c r="A344" t="s">
         <v>27</v>
       </c>
       <c r="B344">
@@ -19537,7 +19511,7 @@
       <c r="E344">
         <v>3325</v>
       </c>
-      <c r="F344" s="2" t="s">
+      <c r="F344" t="s">
         <v>35</v>
       </c>
       <c r="G344">
@@ -19548,7 +19522,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A345" s="2" t="s">
+      <c r="A345" t="s">
         <v>27</v>
       </c>
       <c r="B345">
@@ -19563,7 +19537,7 @@
       <c r="E345">
         <v>3500</v>
       </c>
-      <c r="F345" s="2" t="s">
+      <c r="F345" t="s">
         <v>36</v>
       </c>
       <c r="G345">
